--- a/apps/load_data/2019/05/PLMOVMAE.xlsx
+++ b/apps/load_data/2019/05/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2019\HHY0519\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drey\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1502E783-940D-4828-B5CC-828D031E9A6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F130D19E-F570-4AC3-91C4-E448E072B241}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10951,8 +10951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="J295" sqref="J295"/>
+    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
+      <selection activeCell="Q293" sqref="Q293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10970,10 +10970,10 @@
     <col min="11" max="11" width="45.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="1.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="1.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.7109375" customWidth="1"/>
     <col min="20" max="20" width="16.7109375" style="1" customWidth="1"/>
@@ -63467,7 +63467,7 @@
       <c r="P290" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q290" s="5">
+      <c r="Q290" s="3">
         <v>27862</v>
       </c>
       <c r="R290" s="4" t="s">
@@ -63688,7 +63688,7 @@
       <c r="P291" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q291" s="5">
+      <c r="Q291" s="3">
         <v>29411</v>
       </c>
       <c r="R291" s="4" t="s">
@@ -63902,7 +63902,7 @@
       <c r="P292" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q292" s="5">
+      <c r="Q292" s="3">
         <v>29181</v>
       </c>
       <c r="R292" s="4" t="s">
@@ -64115,7 +64115,7 @@
       <c r="P293" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q293" s="5">
+      <c r="Q293" s="3">
         <v>23180</v>
       </c>
       <c r="R293" s="4" t="s">

--- a/apps/load_data/2019/05/PLMOVMAE.xlsx
+++ b/apps/load_data/2019/05/PLMOVMAE.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drey\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ACTUALIZADOS\2019\HHY0519\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F130D19E-F570-4AC3-91C4-E448E072B241}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A266FEA0-AEBA-4F59-B852-51BB044CEB90}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="10305" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CI$293</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CI$289</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12407" uniqueCount="3357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12383" uniqueCount="3353">
   <si>
     <t>CODEJE</t>
   </si>
@@ -7300,9 +7301,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -8593,9 +8591,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8950,9 +8945,6 @@
     <t>09842316</t>
   </si>
   <si>
-    <t>SUSPENSION</t>
-  </si>
-  <si>
     <t>7306280HYLAM000</t>
   </si>
   <si>
@@ -10037,9 +10029,6 @@
   </si>
   <si>
     <t>07735072</t>
-  </si>
-  <si>
-    <t>11111111</t>
   </si>
   <si>
     <t>GARCIA CARBONE MARCOS SIL</t>
@@ -10586,7 +10575,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -10594,6 +10583,7 @@
     <xf numFmtId="1" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -10951,8 +10941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CI293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A271" workbookViewId="0">
-      <selection activeCell="Q293" sqref="Q293"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC2" sqref="AC2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10970,10 +10960,10 @@
     <col min="11" max="11" width="45.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="6.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="1.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="1.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" customWidth="1"/>
     <col min="18" max="18" width="1.7109375" style="1" customWidth="1"/>
     <col min="19" max="19" width="8.7109375" customWidth="1"/>
     <col min="20" max="20" width="16.7109375" style="1" customWidth="1"/>
@@ -46228,12 +46218,7 @@
       <c r="AB192" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="AC192" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD192" s="1" t="s">
-        <v>2425</v>
-      </c>
+      <c r="AC192" s="3"/>
       <c r="AF192" s="1" t="s">
         <v>106</v>
       </c>
@@ -46286,7 +46271,7 @@
         <v>19</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2426</v>
+        <v>2425</v>
       </c>
       <c r="BE192" s="1" t="s">
         <v>113</v>
@@ -46298,10 +46283,10 @@
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="BI192" s="1" t="s">
         <v>2427</v>
-      </c>
-      <c r="BI192" s="1" t="s">
-        <v>2428</v>
       </c>
       <c r="BM192" s="1" t="s">
         <v>118</v>
@@ -46316,13 +46301,13 @@
         <v>159</v>
       </c>
       <c r="BR192" s="1" t="s">
-        <v>2429</v>
+        <v>2428</v>
       </c>
       <c r="BS192" s="3">
         <v>36225</v>
       </c>
       <c r="BT192" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="BU192" s="1" t="s">
         <v>122</v>
@@ -46343,19 +46328,19 @@
         <v>101</v>
       </c>
       <c r="CC192" s="1" t="s">
+        <v>2430</v>
+      </c>
+      <c r="CD192" s="1" t="s">
         <v>2431</v>
       </c>
-      <c r="CD192" s="1" t="s">
+      <c r="CE192" s="1" t="s">
         <v>2432</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CG192" s="1" t="s">
         <v>2433</v>
       </c>
-      <c r="CG192" s="1" t="s">
+      <c r="CH192" s="1" t="s">
         <v>2434</v>
-      </c>
-      <c r="CH192" s="1" t="s">
-        <v>2435</v>
       </c>
       <c r="CI192" s="1" t="s">
         <v>130</v>
@@ -46393,13 +46378,13 @@
         <v>96</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2435</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2436</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2437</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2438</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>100</v>
@@ -46431,12 +46416,7 @@
       <c r="AB193" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="AC193" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD193" s="1" t="s">
-        <v>2425</v>
-      </c>
+      <c r="AC193" s="3"/>
       <c r="AF193" s="1" t="s">
         <v>106</v>
       </c>
@@ -46483,7 +46463,7 @@
         <v>101</v>
       </c>
       <c r="AZ193" s="1" t="s">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BB193" s="1">
         <v>5</v>
@@ -46492,7 +46472,7 @@
         <v>19</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2440</v>
+        <v>2439</v>
       </c>
       <c r="BE193" s="1" t="s">
         <v>113</v>
@@ -46504,10 +46484,10 @@
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2440</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2441</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2442</v>
       </c>
       <c r="BM193" s="1" t="s">
         <v>118</v>
@@ -46519,13 +46499,13 @@
         <v>102</v>
       </c>
       <c r="BR193" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BS193" s="3">
         <v>36949</v>
       </c>
       <c r="BT193" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BU193" s="1" t="s">
         <v>122</v>
@@ -46549,19 +46529,19 @@
         <v>101</v>
       </c>
       <c r="CC193" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="CD193" s="1" t="s">
         <v>2095</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="CG193" s="1" t="s">
         <v>2446</v>
       </c>
-      <c r="CG193" s="1" t="s">
+      <c r="CH193" s="1" t="s">
         <v>2447</v>
-      </c>
-      <c r="CH193" s="1" t="s">
-        <v>2448</v>
       </c>
       <c r="CI193" s="1" t="s">
         <v>130</v>
@@ -46599,13 +46579,13 @@
         <v>96</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2448</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2449</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2450</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2451</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>100</v>
@@ -46637,12 +46617,7 @@
       <c r="AB194" s="1" t="s">
         <v>1296</v>
       </c>
-      <c r="AC194" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD194" s="1" t="s">
-        <v>2425</v>
-      </c>
+      <c r="AC194" s="3"/>
       <c r="AF194" s="1" t="s">
         <v>106</v>
       </c>
@@ -46689,7 +46664,7 @@
         <v>101</v>
       </c>
       <c r="AZ194" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BB194" s="1">
         <v>5</v>
@@ -46698,7 +46673,7 @@
         <v>19</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BE194" s="1" t="s">
         <v>113</v>
@@ -46710,10 +46685,10 @@
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2454</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2455</v>
       </c>
       <c r="BM194" s="1" t="s">
         <v>118</v>
@@ -46725,13 +46700,13 @@
         <v>102</v>
       </c>
       <c r="BR194" s="1" t="s">
-        <v>2456</v>
+        <v>2455</v>
       </c>
       <c r="BS194" s="3">
         <v>36825</v>
       </c>
       <c r="BT194" s="1" t="s">
-        <v>2457</v>
+        <v>2456</v>
       </c>
       <c r="BU194" s="1" t="s">
         <v>122</v>
@@ -46755,19 +46730,19 @@
         <v>101</v>
       </c>
       <c r="CC194" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="CD194" s="1" t="s">
         <v>2458</v>
       </c>
-      <c r="CD194" s="1" t="s">
+      <c r="CE194" s="1" t="s">
         <v>2459</v>
       </c>
-      <c r="CE194" s="1" t="s">
+      <c r="CG194" s="1" t="s">
         <v>2460</v>
       </c>
-      <c r="CG194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2461</v>
-      </c>
-      <c r="CH194" s="1" t="s">
-        <v>2462</v>
       </c>
       <c r="CI194" s="1" t="s">
         <v>130</v>
@@ -46805,13 +46780,13 @@
         <v>96</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2462</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2463</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2464</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2465</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>100</v>
@@ -46840,12 +46815,7 @@
       <c r="AA195" s="1">
         <v>0</v>
       </c>
-      <c r="AC195" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD195" s="1" t="s">
-        <v>2425</v>
-      </c>
+      <c r="AC195" s="3"/>
       <c r="AF195" s="1" t="s">
         <v>106</v>
       </c>
@@ -46895,7 +46865,7 @@
         <v>101</v>
       </c>
       <c r="AZ195" s="1" t="s">
-        <v>2466</v>
+        <v>2465</v>
       </c>
       <c r="BB195" s="1">
         <v>5</v>
@@ -46904,7 +46874,7 @@
         <v>19</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2467</v>
+        <v>2466</v>
       </c>
       <c r="BE195" s="1" t="s">
         <v>113</v>
@@ -46916,10 +46886,10 @@
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="BI195" s="1" t="s">
         <v>2468</v>
-      </c>
-      <c r="BI195" s="1" t="s">
-        <v>2469</v>
       </c>
       <c r="BM195" s="1" t="s">
         <v>118</v>
@@ -46928,7 +46898,7 @@
         <v>105</v>
       </c>
       <c r="BT195" s="1" t="s">
-        <v>2470</v>
+        <v>2469</v>
       </c>
       <c r="BU195" s="1" t="s">
         <v>122</v>
@@ -46946,19 +46916,19 @@
         <v>101</v>
       </c>
       <c r="CC195" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="CD195" s="1" t="s">
         <v>1287</v>
       </c>
       <c r="CE195" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="CG195" s="1" t="s">
         <v>2472</v>
       </c>
-      <c r="CG195" s="1" t="s">
+      <c r="CH195" s="1" t="s">
         <v>2473</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2474</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>130</v>
@@ -46996,13 +46966,13 @@
         <v>96</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2474</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2475</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2476</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2477</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>100</v>
@@ -47034,12 +47004,7 @@
       <c r="AB196" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="AC196" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD196" s="1" t="s">
-        <v>2425</v>
-      </c>
+      <c r="AC196" s="3"/>
       <c r="AF196" s="1" t="s">
         <v>106</v>
       </c>
@@ -47089,7 +47054,7 @@
         <v>101</v>
       </c>
       <c r="AZ196" s="1" t="s">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BB196" s="1">
         <v>5</v>
@@ -47098,7 +47063,7 @@
         <v>19</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2479</v>
+        <v>2478</v>
       </c>
       <c r="BE196" s="1" t="s">
         <v>113</v>
@@ -47110,13 +47075,13 @@
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
-        <v>2480</v>
+        <v>2479</v>
       </c>
       <c r="BM196" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT196" s="1" t="s">
-        <v>2481</v>
+        <v>2480</v>
       </c>
       <c r="BU196" s="1" t="s">
         <v>122</v>
@@ -47137,13 +47102,13 @@
         <v>702</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2481</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2482</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CG196" s="1" t="s">
         <v>2483</v>
-      </c>
-      <c r="CG196" s="1" t="s">
-        <v>2484</v>
       </c>
       <c r="CH196" s="1" t="s">
         <v>130</v>
@@ -47184,13 +47149,13 @@
         <v>96</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2484</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2485</v>
       </c>
-      <c r="L197" s="1" t="s">
+      <c r="N197" s="1" t="s">
         <v>2486</v>
-      </c>
-      <c r="N197" s="1" t="s">
-        <v>2487</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>100</v>
@@ -47219,12 +47184,7 @@
       <c r="AA197" s="1">
         <v>0</v>
       </c>
-      <c r="AC197" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD197" s="1" t="s">
-        <v>2425</v>
-      </c>
+      <c r="AC197" s="3"/>
       <c r="AF197" s="1" t="s">
         <v>106</v>
       </c>
@@ -47274,7 +47234,7 @@
         <v>101</v>
       </c>
       <c r="AZ197" s="1" t="s">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="BB197" s="1">
         <v>5</v>
@@ -47283,7 +47243,7 @@
         <v>19</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2489</v>
+        <v>2488</v>
       </c>
       <c r="BE197" s="1" t="s">
         <v>113</v>
@@ -47295,7 +47255,7 @@
         <v>115</v>
       </c>
       <c r="BH197" s="1" t="s">
-        <v>2490</v>
+        <v>2489</v>
       </c>
       <c r="BI197" s="1" t="s">
         <v>613</v>
@@ -47307,7 +47267,7 @@
         <v>105</v>
       </c>
       <c r="BT197" s="1" t="s">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="BU197" s="1" t="s">
         <v>122</v>
@@ -47325,16 +47285,16 @@
         <v>101</v>
       </c>
       <c r="CC197" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="CD197" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="CE197" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="CD197" s="1" t="s">
-        <v>2492</v>
-      </c>
-      <c r="CE197" s="1" t="s">
+      <c r="CG197" s="1" t="s">
         <v>2493</v>
-      </c>
-      <c r="CG197" s="1" t="s">
-        <v>2494</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>620</v>
@@ -47375,13 +47335,13 @@
         <v>96</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2494</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2495</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2496</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2497</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>100</v>
@@ -47416,12 +47376,7 @@
       <c r="AA198" s="1">
         <v>0</v>
       </c>
-      <c r="AC198" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD198" s="1" t="s">
-        <v>2425</v>
-      </c>
+      <c r="AC198" s="3"/>
       <c r="AF198" s="1" t="s">
         <v>106</v>
       </c>
@@ -47468,7 +47423,7 @@
         <v>101</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BB198" s="1">
         <v>5</v>
@@ -47477,7 +47432,7 @@
         <v>19</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="BE198" s="1" t="s">
         <v>113</v>
@@ -47489,10 +47444,10 @@
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="BI198" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="BI198" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="BM198" s="1" t="s">
         <v>118</v>
@@ -47504,13 +47459,13 @@
         <v>119</v>
       </c>
       <c r="BR198" s="1" t="s">
-        <v>2502</v>
+        <v>2501</v>
       </c>
       <c r="BS198" s="3">
         <v>35243</v>
       </c>
       <c r="BT198" s="1" t="s">
-        <v>2503</v>
+        <v>2502</v>
       </c>
       <c r="BU198" s="1" t="s">
         <v>122</v>
@@ -47528,19 +47483,19 @@
         <v>101</v>
       </c>
       <c r="CC198" s="1" t="s">
+        <v>2503</v>
+      </c>
+      <c r="CD198" s="1" t="s">
         <v>2504</v>
       </c>
-      <c r="CD198" s="1" t="s">
+      <c r="CE198" s="1" t="s">
         <v>2505</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CG198" s="1" t="s">
         <v>2506</v>
       </c>
-      <c r="CG198" s="1" t="s">
+      <c r="CH198" s="1" t="s">
         <v>2507</v>
-      </c>
-      <c r="CH198" s="1" t="s">
-        <v>2508</v>
       </c>
       <c r="CI198" s="1" t="s">
         <v>130</v>
@@ -47578,13 +47533,13 @@
         <v>96</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2508</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2509</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2510</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2511</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>100</v>
@@ -47613,12 +47568,7 @@
       <c r="AA199" s="1">
         <v>0</v>
       </c>
-      <c r="AC199" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD199" s="1" t="s">
-        <v>2425</v>
-      </c>
+      <c r="AC199" s="3"/>
       <c r="AF199" s="1" t="s">
         <v>106</v>
       </c>
@@ -47668,7 +47618,7 @@
         <v>101</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="BB199" s="1">
         <v>5</v>
@@ -47677,7 +47627,7 @@
         <v>19</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="BE199" s="1" t="s">
         <v>113</v>
@@ -47689,7 +47639,7 @@
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2514</v>
+        <v>2513</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>613</v>
@@ -47701,7 +47651,7 @@
         <v>105</v>
       </c>
       <c r="BT199" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="BU199" s="1" t="s">
         <v>122</v>
@@ -47719,16 +47669,16 @@
         <v>101</v>
       </c>
       <c r="CC199" s="1" t="s">
+        <v>2515</v>
+      </c>
+      <c r="CD199" s="1" t="s">
         <v>2516</v>
       </c>
-      <c r="CD199" s="1" t="s">
+      <c r="CE199" s="1" t="s">
         <v>2517</v>
       </c>
-      <c r="CE199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>2518</v>
-      </c>
-      <c r="CG199" s="1" t="s">
-        <v>2519</v>
       </c>
       <c r="CH199" s="1" t="s">
         <v>620</v>
@@ -47769,13 +47719,13 @@
         <v>96</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2519</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2520</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2521</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2522</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>100</v>
@@ -47804,12 +47754,7 @@
       <c r="AA200" s="1">
         <v>0</v>
       </c>
-      <c r="AC200" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD200" s="1" t="s">
-        <v>2425</v>
-      </c>
+      <c r="AC200" s="3"/>
       <c r="AF200" s="1" t="s">
         <v>106</v>
       </c>
@@ -47859,7 +47804,7 @@
         <v>101</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="BB200" s="1">
         <v>5</v>
@@ -47868,7 +47813,7 @@
         <v>19</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BE200" s="1" t="s">
         <v>113</v>
@@ -47880,7 +47825,7 @@
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="BI200" s="1" t="s">
         <v>613</v>
@@ -47895,7 +47840,7 @@
         <v>159</v>
       </c>
       <c r="BT200" s="1" t="s">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="BU200" s="1" t="s">
         <v>122</v>
@@ -47913,16 +47858,16 @@
         <v>101</v>
       </c>
       <c r="CC200" s="1" t="s">
+        <v>2526</v>
+      </c>
+      <c r="CD200" s="1" t="s">
         <v>2527</v>
       </c>
-      <c r="CD200" s="1" t="s">
+      <c r="CE200" s="1" t="s">
         <v>2528</v>
       </c>
-      <c r="CE200" s="1" t="s">
+      <c r="CG200" s="1" t="s">
         <v>2529</v>
-      </c>
-      <c r="CG200" s="1" t="s">
-        <v>2530</v>
       </c>
       <c r="CH200" s="1" t="s">
         <v>620</v>
@@ -47963,13 +47908,13 @@
         <v>96</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2530</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2531</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2532</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2533</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>100</v>
@@ -47998,12 +47943,7 @@
       <c r="AA201" s="1">
         <v>0</v>
       </c>
-      <c r="AC201" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD201" s="1" t="s">
-        <v>2425</v>
-      </c>
+      <c r="AC201" s="3"/>
       <c r="AF201" s="1" t="s">
         <v>106</v>
       </c>
@@ -48050,7 +47990,7 @@
         <v>101</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BB201" s="1">
         <v>5</v>
@@ -48059,7 +47999,7 @@
         <v>19</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BE201" s="1" t="s">
         <v>113</v>
@@ -48071,7 +48011,7 @@
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>472</v>
@@ -48086,13 +48026,13 @@
         <v>219</v>
       </c>
       <c r="BR201" s="1" t="s">
-        <v>2537</v>
+        <v>2536</v>
       </c>
       <c r="BS201" s="3">
         <v>34307</v>
       </c>
       <c r="BT201" s="1" t="s">
-        <v>2538</v>
+        <v>2537</v>
       </c>
       <c r="BU201" s="1" t="s">
         <v>122</v>
@@ -48110,16 +48050,16 @@
         <v>101</v>
       </c>
       <c r="CC201" s="1" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="CD201" s="1" t="s">
         <v>434</v>
       </c>
       <c r="CE201" s="1" t="s">
+        <v>2539</v>
+      </c>
+      <c r="CG201" s="1" t="s">
         <v>2540</v>
-      </c>
-      <c r="CG201" s="1" t="s">
-        <v>2541</v>
       </c>
       <c r="CH201" s="1" t="s">
         <v>479</v>
@@ -48160,13 +48100,13 @@
         <v>96</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2541</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2542</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2543</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2544</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>100</v>
@@ -48198,12 +48138,7 @@
       <c r="AA202" s="1">
         <v>0</v>
       </c>
-      <c r="AC202" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD202" s="1" t="s">
-        <v>2425</v>
-      </c>
+      <c r="AC202" s="3"/>
       <c r="AF202" s="1" t="s">
         <v>106</v>
       </c>
@@ -48253,7 +48188,7 @@
         <v>101</v>
       </c>
       <c r="AZ202" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BB202" s="1">
         <v>5</v>
@@ -48262,7 +48197,7 @@
         <v>19</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2546</v>
+        <v>2545</v>
       </c>
       <c r="BE202" s="1" t="s">
         <v>113</v>
@@ -48274,7 +48209,7 @@
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="BI202" s="1" t="s">
         <v>879</v>
@@ -48286,7 +48221,7 @@
         <v>105</v>
       </c>
       <c r="BT202" s="1" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="BU202" s="1" t="s">
         <v>122</v>
@@ -48307,16 +48242,16 @@
         <v>101</v>
       </c>
       <c r="CC202" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="CD202" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="CD202" s="1" t="s">
+      <c r="CE202" s="1" t="s">
         <v>2550</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CG202" s="1" t="s">
         <v>2551</v>
-      </c>
-      <c r="CG202" s="1" t="s">
-        <v>2552</v>
       </c>
       <c r="CH202" s="1" t="s">
         <v>884</v>
@@ -48357,13 +48292,13 @@
         <v>96</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2552</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2553</v>
       </c>
-      <c r="L203" s="1" t="s">
+      <c r="N203" s="1" t="s">
         <v>2554</v>
-      </c>
-      <c r="N203" s="1" t="s">
-        <v>2555</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>100</v>
@@ -48392,12 +48327,7 @@
       <c r="AA203" s="1">
         <v>0</v>
       </c>
-      <c r="AC203" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD203" s="1" t="s">
-        <v>2425</v>
-      </c>
+      <c r="AC203" s="3"/>
       <c r="AF203" s="1" t="s">
         <v>106</v>
       </c>
@@ -48444,7 +48374,7 @@
         <v>101</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BB203" s="1">
         <v>5</v>
@@ -48453,7 +48383,7 @@
         <v>19</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="BE203" s="1" t="s">
         <v>113</v>
@@ -48465,10 +48395,10 @@
         <v>115</v>
       </c>
       <c r="BH203" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="BI203" s="1" t="s">
         <v>2558</v>
-      </c>
-      <c r="BI203" s="1" t="s">
-        <v>2559</v>
       </c>
       <c r="BM203" s="1" t="s">
         <v>118</v>
@@ -48480,13 +48410,13 @@
         <v>119</v>
       </c>
       <c r="BR203" s="1" t="s">
-        <v>2560</v>
+        <v>2559</v>
       </c>
       <c r="BS203" s="3">
         <v>35950</v>
       </c>
       <c r="BT203" s="1" t="s">
-        <v>2561</v>
+        <v>2560</v>
       </c>
       <c r="BU203" s="1" t="s">
         <v>122</v>
@@ -48504,19 +48434,19 @@
         <v>101</v>
       </c>
       <c r="CC203" s="1" t="s">
-        <v>2562</v>
+        <v>2561</v>
       </c>
       <c r="CD203" s="1" t="s">
         <v>1896</v>
       </c>
       <c r="CE203" s="1" t="s">
+        <v>2562</v>
+      </c>
+      <c r="CG203" s="1" t="s">
         <v>2563</v>
       </c>
-      <c r="CG203" s="1" t="s">
+      <c r="CH203" s="1" t="s">
         <v>2564</v>
-      </c>
-      <c r="CH203" s="1" t="s">
-        <v>2565</v>
       </c>
       <c r="CI203" s="1" t="s">
         <v>130</v>
@@ -48554,10 +48484,10 @@
         <v>96</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2565</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2566</v>
-      </c>
-      <c r="L204" s="1" t="s">
-        <v>2567</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>407</v>
@@ -48638,7 +48568,7 @@
         <v>410</v>
       </c>
       <c r="CE204" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
     </row>
     <row r="205" spans="1:87" x14ac:dyDescent="0.25">
@@ -48652,10 +48582,10 @@
         <v>94</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2568</v>
-      </c>
-      <c r="L205" s="1" t="s">
-        <v>2569</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>407</v>
@@ -48724,7 +48654,7 @@
         <v>0</v>
       </c>
       <c r="BZ205" s="1" t="s">
-        <v>2570</v>
+        <v>2569</v>
       </c>
       <c r="CA205" s="1" t="s">
         <v>124</v>
@@ -48736,7 +48666,7 @@
         <v>410</v>
       </c>
       <c r="CE205" s="1" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="206" spans="1:87" x14ac:dyDescent="0.25">
@@ -48771,13 +48701,13 @@
         <v>96</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2570</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2571</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2572</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2573</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>100</v>
@@ -48858,7 +48788,7 @@
         <v>101</v>
       </c>
       <c r="AZ206" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="BB206" s="1">
         <v>5</v>
@@ -48867,7 +48797,7 @@
         <v>19</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="BE206" s="1" t="s">
         <v>113</v>
@@ -48879,7 +48809,7 @@
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
       <c r="BI206" s="1" t="s">
         <v>384</v>
@@ -48894,7 +48824,7 @@
         <v>159</v>
       </c>
       <c r="BT206" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BU206" s="1" t="s">
         <v>122</v>
@@ -48912,16 +48842,16 @@
         <v>101</v>
       </c>
       <c r="CC206" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="CD206" s="1" t="s">
         <v>434</v>
       </c>
       <c r="CE206" s="1" t="s">
+        <v>2578</v>
+      </c>
+      <c r="CG206" s="1" t="s">
         <v>2579</v>
-      </c>
-      <c r="CG206" s="1" t="s">
-        <v>2580</v>
       </c>
       <c r="CH206" s="1" t="s">
         <v>392</v>
@@ -48962,13 +48892,13 @@
         <v>96</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2580</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2581</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2582</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2583</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>100</v>
@@ -49043,7 +48973,7 @@
         <v>101</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BB207" s="1">
         <v>5</v>
@@ -49052,7 +48982,7 @@
         <v>19</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="BE207" s="1" t="s">
         <v>113</v>
@@ -49064,7 +48994,7 @@
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="BI207" s="1" t="s">
         <v>1945</v>
@@ -49079,13 +49009,13 @@
         <v>219</v>
       </c>
       <c r="BR207" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="BS207" s="3">
         <v>36099</v>
       </c>
       <c r="BT207" s="1" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
       <c r="BU207" s="1" t="s">
         <v>122</v>
@@ -49103,16 +49033,16 @@
         <v>101</v>
       </c>
       <c r="CC207" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="CD207" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="CD207" s="1" t="s">
+      <c r="CE207" s="1" t="s">
         <v>2590</v>
       </c>
-      <c r="CE207" s="1" t="s">
+      <c r="CG207" s="1" t="s">
         <v>2591</v>
-      </c>
-      <c r="CG207" s="1" t="s">
-        <v>2592</v>
       </c>
       <c r="CH207" s="1" t="s">
         <v>1951</v>
@@ -49153,13 +49083,13 @@
         <v>96</v>
       </c>
       <c r="K208" s="1" t="s">
+        <v>2592</v>
+      </c>
+      <c r="L208" s="1" t="s">
         <v>2593</v>
       </c>
-      <c r="L208" s="1" t="s">
+      <c r="N208" s="1" t="s">
         <v>2594</v>
-      </c>
-      <c r="N208" s="1" t="s">
-        <v>2595</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>100</v>
@@ -49234,7 +49164,7 @@
         <v>101</v>
       </c>
       <c r="AZ208" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BB208" s="1">
         <v>5</v>
@@ -49243,7 +49173,7 @@
         <v>19</v>
       </c>
       <c r="BD208" s="1" t="s">
-        <v>2597</v>
+        <v>2596</v>
       </c>
       <c r="BE208" s="1" t="s">
         <v>113</v>
@@ -49255,10 +49185,10 @@
         <v>115</v>
       </c>
       <c r="BH208" s="1" t="s">
+        <v>2597</v>
+      </c>
+      <c r="BI208" s="1" t="s">
         <v>2598</v>
-      </c>
-      <c r="BI208" s="1" t="s">
-        <v>2599</v>
       </c>
       <c r="BM208" s="1" t="s">
         <v>118</v>
@@ -49270,13 +49200,13 @@
         <v>102</v>
       </c>
       <c r="BR208" s="1" t="s">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="BS208" s="3">
         <v>37735</v>
       </c>
       <c r="BT208" s="1" t="s">
-        <v>2601</v>
+        <v>2600</v>
       </c>
       <c r="BU208" s="1" t="s">
         <v>122</v>
@@ -49294,19 +49224,19 @@
         <v>101</v>
       </c>
       <c r="CC208" s="1" t="s">
+        <v>2601</v>
+      </c>
+      <c r="CD208" s="1" t="s">
         <v>2602</v>
       </c>
-      <c r="CD208" s="1" t="s">
+      <c r="CE208" s="1" t="s">
         <v>2603</v>
       </c>
-      <c r="CE208" s="1" t="s">
+      <c r="CG208" s="1" t="s">
         <v>2604</v>
       </c>
-      <c r="CG208" s="1" t="s">
+      <c r="CH208" s="1" t="s">
         <v>2605</v>
-      </c>
-      <c r="CH208" s="1" t="s">
-        <v>2606</v>
       </c>
       <c r="CI208" s="1" t="s">
         <v>130</v>
@@ -49344,13 +49274,13 @@
         <v>96</v>
       </c>
       <c r="K209" s="1" t="s">
+        <v>2606</v>
+      </c>
+      <c r="L209" s="1" t="s">
         <v>2607</v>
       </c>
-      <c r="L209" s="1" t="s">
+      <c r="N209" s="1" t="s">
         <v>2608</v>
-      </c>
-      <c r="N209" s="1" t="s">
-        <v>2609</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>100</v>
@@ -49428,7 +49358,7 @@
         <v>101</v>
       </c>
       <c r="AZ209" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BB209" s="1">
         <v>5</v>
@@ -49437,7 +49367,7 @@
         <v>19</v>
       </c>
       <c r="BD209" s="1" t="s">
-        <v>2611</v>
+        <v>2610</v>
       </c>
       <c r="BE209" s="1" t="s">
         <v>113</v>
@@ -49449,7 +49379,7 @@
         <v>115</v>
       </c>
       <c r="BH209" s="1" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="BI209" s="1" t="s">
         <v>879</v>
@@ -49461,7 +49391,7 @@
         <v>105</v>
       </c>
       <c r="BT209" s="1" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="BU209" s="1" t="s">
         <v>122</v>
@@ -49479,16 +49409,16 @@
         <v>101</v>
       </c>
       <c r="CC209" s="1" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="CD209" s="1" t="s">
         <v>917</v>
       </c>
       <c r="CE209" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="CG209" s="1" t="s">
         <v>2615</v>
-      </c>
-      <c r="CG209" s="1" t="s">
-        <v>2616</v>
       </c>
       <c r="CH209" s="1" t="s">
         <v>884</v>
@@ -49529,13 +49459,13 @@
         <v>96</v>
       </c>
       <c r="K210" s="1" t="s">
+        <v>2616</v>
+      </c>
+      <c r="L210" s="1" t="s">
         <v>2617</v>
       </c>
-      <c r="L210" s="1" t="s">
+      <c r="N210" s="1" t="s">
         <v>2618</v>
-      </c>
-      <c r="N210" s="1" t="s">
-        <v>2619</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>100</v>
@@ -49568,7 +49498,7 @@
         <v>106</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>2014</v>
@@ -49613,7 +49543,7 @@
         <v>101</v>
       </c>
       <c r="AZ210" s="1" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="BB210" s="1">
         <v>5</v>
@@ -49622,7 +49552,7 @@
         <v>19</v>
       </c>
       <c r="BD210" s="1" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="BE210" s="1" t="s">
         <v>113</v>
@@ -49634,7 +49564,7 @@
         <v>115</v>
       </c>
       <c r="BH210" s="1" t="s">
-        <v>2623</v>
+        <v>2622</v>
       </c>
       <c r="BI210" s="1" t="s">
         <v>384</v>
@@ -49646,7 +49576,7 @@
         <v>105</v>
       </c>
       <c r="BT210" s="1" t="s">
-        <v>2624</v>
+        <v>2623</v>
       </c>
       <c r="BU210" s="1" t="s">
         <v>122</v>
@@ -49667,13 +49597,13 @@
         <v>1665</v>
       </c>
       <c r="CD210" s="1" t="s">
+        <v>2624</v>
+      </c>
+      <c r="CE210" s="1" t="s">
         <v>2625</v>
       </c>
-      <c r="CE210" s="1" t="s">
+      <c r="CG210" s="1" t="s">
         <v>2626</v>
-      </c>
-      <c r="CG210" s="1" t="s">
-        <v>2627</v>
       </c>
       <c r="CH210" s="1" t="s">
         <v>392</v>
@@ -49714,13 +49644,13 @@
         <v>96</v>
       </c>
       <c r="K211" s="1" t="s">
+        <v>2627</v>
+      </c>
+      <c r="L211" s="1" t="s">
         <v>2628</v>
       </c>
-      <c r="L211" s="1" t="s">
+      <c r="N211" s="1" t="s">
         <v>2629</v>
-      </c>
-      <c r="N211" s="1" t="s">
-        <v>2630</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>100</v>
@@ -49798,7 +49728,7 @@
         <v>101</v>
       </c>
       <c r="AZ211" s="1" t="s">
-        <v>2631</v>
+        <v>2630</v>
       </c>
       <c r="BB211" s="1">
         <v>5</v>
@@ -49807,7 +49737,7 @@
         <v>19</v>
       </c>
       <c r="BD211" s="1" t="s">
-        <v>2632</v>
+        <v>2631</v>
       </c>
       <c r="BE211" s="1" t="s">
         <v>113</v>
@@ -49819,7 +49749,7 @@
         <v>115</v>
       </c>
       <c r="BH211" s="1" t="s">
-        <v>2633</v>
+        <v>2632</v>
       </c>
       <c r="BI211" s="1" t="s">
         <v>2203</v>
@@ -49834,13 +49764,13 @@
         <v>102</v>
       </c>
       <c r="BR211" s="1" t="s">
-        <v>2634</v>
+        <v>2633</v>
       </c>
       <c r="BS211" s="3">
         <v>43602</v>
       </c>
       <c r="BT211" s="1" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="BU211" s="1" t="s">
         <v>122</v>
@@ -49864,10 +49794,10 @@
         <v>1005</v>
       </c>
       <c r="CE211" s="1" t="s">
+        <v>2635</v>
+      </c>
+      <c r="CG211" s="1" t="s">
         <v>2636</v>
-      </c>
-      <c r="CG211" s="1" t="s">
-        <v>2637</v>
       </c>
       <c r="CH211" s="1" t="s">
         <v>2210</v>
@@ -49908,13 +49838,13 @@
         <v>96</v>
       </c>
       <c r="K212" s="1" t="s">
+        <v>2637</v>
+      </c>
+      <c r="L212" s="1" t="s">
         <v>2638</v>
       </c>
-      <c r="L212" s="1" t="s">
+      <c r="N212" s="1" t="s">
         <v>2639</v>
-      </c>
-      <c r="N212" s="1" t="s">
-        <v>2640</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>100</v>
@@ -49992,7 +49922,7 @@
         <v>101</v>
       </c>
       <c r="AZ212" s="1" t="s">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BB212" s="1">
         <v>5</v>
@@ -50001,7 +49931,7 @@
         <v>19</v>
       </c>
       <c r="BD212" s="1" t="s">
-        <v>2642</v>
+        <v>2641</v>
       </c>
       <c r="BE212" s="1" t="s">
         <v>113</v>
@@ -50013,7 +49943,7 @@
         <v>115</v>
       </c>
       <c r="BH212" s="1" t="s">
-        <v>2643</v>
+        <v>2642</v>
       </c>
       <c r="BI212" s="1" t="s">
         <v>1210</v>
@@ -50025,7 +49955,7 @@
         <v>105</v>
       </c>
       <c r="BT212" s="1" t="s">
-        <v>2644</v>
+        <v>2643</v>
       </c>
       <c r="BU212" s="1" t="s">
         <v>122</v>
@@ -50043,16 +49973,16 @@
         <v>101</v>
       </c>
       <c r="CC212" s="1" t="s">
+        <v>2644</v>
+      </c>
+      <c r="CD212" s="1" t="s">
         <v>2645</v>
       </c>
-      <c r="CD212" s="1" t="s">
+      <c r="CE212" s="1" t="s">
         <v>2646</v>
       </c>
-      <c r="CE212" s="1" t="s">
+      <c r="CG212" s="1" t="s">
         <v>2647</v>
-      </c>
-      <c r="CG212" s="1" t="s">
-        <v>2648</v>
       </c>
       <c r="CH212" s="1" t="s">
         <v>1216</v>
@@ -50093,13 +50023,13 @@
         <v>96</v>
       </c>
       <c r="K213" s="1" t="s">
+        <v>2648</v>
+      </c>
+      <c r="L213" s="1" t="s">
         <v>2649</v>
       </c>
-      <c r="L213" s="1" t="s">
+      <c r="N213" s="1" t="s">
         <v>2650</v>
-      </c>
-      <c r="N213" s="1" t="s">
-        <v>2651</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>100</v>
@@ -50138,7 +50068,7 @@
         <v>42247</v>
       </c>
       <c r="AD213" s="1" t="s">
-        <v>2652</v>
+        <v>2651</v>
       </c>
       <c r="AF213" s="1" t="s">
         <v>106</v>
@@ -50192,7 +50122,7 @@
         <v>19</v>
       </c>
       <c r="BD213" s="1" t="s">
-        <v>2653</v>
+        <v>2652</v>
       </c>
       <c r="BE213" s="1" t="s">
         <v>113</v>
@@ -50204,10 +50134,10 @@
         <v>115</v>
       </c>
       <c r="BH213" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="BI213" s="1" t="s">
         <v>2654</v>
-      </c>
-      <c r="BI213" s="1" t="s">
-        <v>2655</v>
       </c>
       <c r="BM213" s="1" t="s">
         <v>118</v>
@@ -50219,13 +50149,13 @@
         <v>219</v>
       </c>
       <c r="BR213" s="1" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
       <c r="BS213" s="3">
         <v>36580</v>
       </c>
       <c r="BT213" s="1" t="s">
-        <v>2657</v>
+        <v>2656</v>
       </c>
       <c r="BU213" s="1" t="s">
         <v>122</v>
@@ -50246,7 +50176,7 @@
         <v>101</v>
       </c>
       <c r="CC213" s="1" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
       <c r="CD213" s="1" t="s">
         <v>294</v>
@@ -50255,10 +50185,10 @@
         <v>1694</v>
       </c>
       <c r="CG213" s="1" t="s">
+        <v>2658</v>
+      </c>
+      <c r="CH213" s="1" t="s">
         <v>2659</v>
-      </c>
-      <c r="CH213" s="1" t="s">
-        <v>2660</v>
       </c>
       <c r="CI213" s="1" t="s">
         <v>130</v>
@@ -50296,13 +50226,13 @@
         <v>96</v>
       </c>
       <c r="K214" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="L214" s="1" t="s">
         <v>2661</v>
       </c>
-      <c r="L214" s="1" t="s">
+      <c r="N214" s="1" t="s">
         <v>2662</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>2663</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>100</v>
@@ -50383,7 +50313,7 @@
         <v>19</v>
       </c>
       <c r="BD214" s="1" t="s">
-        <v>2664</v>
+        <v>2663</v>
       </c>
       <c r="BE214" s="1" t="s">
         <v>113</v>
@@ -50395,7 +50325,7 @@
         <v>115</v>
       </c>
       <c r="BH214" s="1" t="s">
-        <v>2665</v>
+        <v>2664</v>
       </c>
       <c r="BI214" s="1" t="s">
         <v>1991</v>
@@ -50410,13 +50340,13 @@
         <v>119</v>
       </c>
       <c r="BR214" s="1" t="s">
-        <v>2666</v>
+        <v>2665</v>
       </c>
       <c r="BS214" s="3">
         <v>37747</v>
       </c>
       <c r="BT214" s="1" t="s">
-        <v>2667</v>
+        <v>2666</v>
       </c>
       <c r="BU214" s="1" t="s">
         <v>122</v>
@@ -50440,10 +50370,10 @@
         <v>690</v>
       </c>
       <c r="CE214" s="1" t="s">
+        <v>2667</v>
+      </c>
+      <c r="CG214" s="1" t="s">
         <v>2668</v>
-      </c>
-      <c r="CG214" s="1" t="s">
-        <v>2669</v>
       </c>
       <c r="CH214" s="1" t="s">
         <v>1998</v>
@@ -50484,13 +50414,13 @@
         <v>96</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2669</v>
+      </c>
+      <c r="L215" s="1" t="s">
         <v>2670</v>
       </c>
-      <c r="L215" s="1" t="s">
+      <c r="N215" s="1" t="s">
         <v>2671</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2672</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>100</v>
@@ -50574,7 +50504,7 @@
         <v>19</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2673</v>
+        <v>2672</v>
       </c>
       <c r="BE215" s="1" t="s">
         <v>113</v>
@@ -50586,7 +50516,7 @@
         <v>115</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="BM215" s="1" t="s">
         <v>118</v>
@@ -50595,7 +50525,7 @@
         <v>105</v>
       </c>
       <c r="BT215" s="1" t="s">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="BU215" s="1" t="s">
         <v>122</v>
@@ -50613,16 +50543,16 @@
         <v>101</v>
       </c>
       <c r="CC215" s="1" t="s">
+        <v>2675</v>
+      </c>
+      <c r="CD215" s="1" t="s">
         <v>2676</v>
       </c>
-      <c r="CD215" s="1" t="s">
+      <c r="CE215" s="1" t="s">
         <v>2677</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CG215" s="1" t="s">
         <v>2678</v>
-      </c>
-      <c r="CG215" s="1" t="s">
-        <v>2679</v>
       </c>
       <c r="CH215" s="1" t="s">
         <v>130</v>
@@ -50663,13 +50593,13 @@
         <v>96</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2679</v>
+      </c>
+      <c r="L216" s="1" t="s">
         <v>2680</v>
       </c>
-      <c r="L216" s="1" t="s">
+      <c r="N216" s="1" t="s">
         <v>2681</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2682</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>100</v>
@@ -50753,7 +50683,7 @@
         <v>19</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2683</v>
+        <v>2682</v>
       </c>
       <c r="BE216" s="1" t="s">
         <v>113</v>
@@ -50765,7 +50695,7 @@
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2684</v>
+        <v>2683</v>
       </c>
       <c r="BI216" s="1" t="s">
         <v>613</v>
@@ -50777,7 +50707,7 @@
         <v>105</v>
       </c>
       <c r="BT216" s="1" t="s">
-        <v>2685</v>
+        <v>2684</v>
       </c>
       <c r="BU216" s="1" t="s">
         <v>122</v>
@@ -50795,16 +50725,16 @@
         <v>101</v>
       </c>
       <c r="CC216" s="1" t="s">
+        <v>2685</v>
+      </c>
+      <c r="CD216" s="1" t="s">
         <v>2686</v>
       </c>
-      <c r="CD216" s="1" t="s">
+      <c r="CE216" s="1" t="s">
         <v>2687</v>
       </c>
-      <c r="CE216" s="1" t="s">
+      <c r="CG216" s="1" t="s">
         <v>2688</v>
-      </c>
-      <c r="CG216" s="1" t="s">
-        <v>2689</v>
       </c>
       <c r="CH216" s="1" t="s">
         <v>620</v>
@@ -50845,13 +50775,13 @@
         <v>96</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L217" s="1" t="s">
         <v>2690</v>
       </c>
-      <c r="L217" s="1" t="s">
+      <c r="N217" s="1" t="s">
         <v>2691</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2692</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>100</v>
@@ -50932,7 +50862,7 @@
         <v>19</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="BE217" s="1" t="s">
         <v>113</v>
@@ -50944,10 +50874,10 @@
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
+        <v>2693</v>
+      </c>
+      <c r="BI217" s="1" t="s">
         <v>2694</v>
-      </c>
-      <c r="BI217" s="1" t="s">
-        <v>2695</v>
       </c>
       <c r="BM217" s="1" t="s">
         <v>118</v>
@@ -50959,13 +50889,13 @@
         <v>102</v>
       </c>
       <c r="BR217" s="1" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="BS217" s="3">
         <v>37334</v>
       </c>
       <c r="BT217" s="1" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="BU217" s="1" t="s">
         <v>122</v>
@@ -50986,16 +50916,16 @@
         <v>531</v>
       </c>
       <c r="CD217" s="1" t="s">
+        <v>2697</v>
+      </c>
+      <c r="CE217" s="1" t="s">
         <v>2698</v>
       </c>
-      <c r="CE217" s="1" t="s">
+      <c r="CG217" s="1" t="s">
         <v>2699</v>
       </c>
-      <c r="CG217" s="1" t="s">
+      <c r="CH217" s="1" t="s">
         <v>2700</v>
-      </c>
-      <c r="CH217" s="1" t="s">
-        <v>2701</v>
       </c>
       <c r="CI217" s="1" t="s">
         <v>130</v>
@@ -51033,13 +50963,13 @@
         <v>96</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2701</v>
+      </c>
+      <c r="L218" s="1" t="s">
         <v>2702</v>
       </c>
-      <c r="L218" s="1" t="s">
+      <c r="N218" s="1" t="s">
         <v>2703</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2704</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>100</v>
@@ -51120,7 +51050,7 @@
         <v>19</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="BE218" s="1" t="s">
         <v>113</v>
@@ -51132,10 +51062,10 @@
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="BI218" s="1" t="s">
         <v>2706</v>
-      </c>
-      <c r="BI218" s="1" t="s">
-        <v>2707</v>
       </c>
       <c r="BM218" s="1" t="s">
         <v>118</v>
@@ -51147,13 +51077,13 @@
         <v>102</v>
       </c>
       <c r="BR218" s="1" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="BS218" s="3">
         <v>37904</v>
       </c>
       <c r="BT218" s="1" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="BU218" s="1" t="s">
         <v>122</v>
@@ -51174,16 +51104,16 @@
         <v>1005</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2709</v>
+      </c>
+      <c r="CE218" s="1" t="s">
         <v>2710</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CG218" s="1" t="s">
         <v>2711</v>
       </c>
-      <c r="CG218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2712</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2713</v>
       </c>
       <c r="CI218" s="1" t="s">
         <v>130</v>
@@ -51221,13 +51151,13 @@
         <v>96</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2713</v>
+      </c>
+      <c r="L219" s="1" t="s">
         <v>2714</v>
       </c>
-      <c r="L219" s="1" t="s">
+      <c r="N219" s="1" t="s">
         <v>2715</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2716</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>100</v>
@@ -51308,7 +51238,7 @@
         <v>19</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="BE219" s="1" t="s">
         <v>113</v>
@@ -51320,7 +51250,7 @@
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>879</v>
@@ -51335,13 +51265,13 @@
         <v>119</v>
       </c>
       <c r="BR219" s="1" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="BS219" s="3">
         <v>36111</v>
       </c>
       <c r="BT219" s="1" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="BU219" s="1" t="s">
         <v>122</v>
@@ -51359,16 +51289,16 @@
         <v>101</v>
       </c>
       <c r="CC219" s="1" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="CD219" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="CE219" s="1" t="s">
+        <v>2721</v>
+      </c>
+      <c r="CG219" s="1" t="s">
         <v>2722</v>
-      </c>
-      <c r="CG219" s="1" t="s">
-        <v>2723</v>
       </c>
       <c r="CH219" s="1" t="s">
         <v>884</v>
@@ -51409,13 +51339,13 @@
         <v>96</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2723</v>
+      </c>
+      <c r="L220" s="1" t="s">
         <v>2724</v>
       </c>
-      <c r="L220" s="1" t="s">
+      <c r="N220" s="1" t="s">
         <v>2725</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2726</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>100</v>
@@ -51496,7 +51426,7 @@
         <v>19</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="BE220" s="1" t="s">
         <v>113</v>
@@ -51508,10 +51438,10 @@
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
+        <v>2727</v>
+      </c>
+      <c r="BI220" s="1" t="s">
         <v>2728</v>
-      </c>
-      <c r="BI220" s="1" t="s">
-        <v>2729</v>
       </c>
       <c r="BM220" s="1" t="s">
         <v>118</v>
@@ -51523,13 +51453,13 @@
         <v>119</v>
       </c>
       <c r="BR220" s="1" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="BS220" s="3">
         <v>37785</v>
       </c>
       <c r="BT220" s="1" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="BU220" s="1" t="s">
         <v>122</v>
@@ -51547,19 +51477,19 @@
         <v>101</v>
       </c>
       <c r="CC220" s="1" t="s">
+        <v>2731</v>
+      </c>
+      <c r="CD220" s="1" t="s">
         <v>2732</v>
       </c>
-      <c r="CD220" s="1" t="s">
+      <c r="CE220" s="1" t="s">
         <v>2733</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CG220" s="1" t="s">
         <v>2734</v>
       </c>
-      <c r="CG220" s="1" t="s">
+      <c r="CH220" s="1" t="s">
         <v>2735</v>
-      </c>
-      <c r="CH220" s="1" t="s">
-        <v>2736</v>
       </c>
       <c r="CI220" s="1" t="s">
         <v>130</v>
@@ -51597,13 +51527,13 @@
         <v>96</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2736</v>
+      </c>
+      <c r="L221" s="1" t="s">
         <v>2737</v>
       </c>
-      <c r="L221" s="1" t="s">
+      <c r="N221" s="1" t="s">
         <v>2738</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2739</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>100</v>
@@ -51687,7 +51617,7 @@
         <v>19</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="BE221" s="1" t="s">
         <v>113</v>
@@ -51699,7 +51629,7 @@
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="BI221" s="1" t="s">
         <v>1991</v>
@@ -51711,7 +51641,7 @@
         <v>105</v>
       </c>
       <c r="BT221" s="1" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="BU221" s="1" t="s">
         <v>122</v>
@@ -51732,13 +51662,13 @@
         <v>1323</v>
       </c>
       <c r="CD221" s="1" t="s">
+        <v>2742</v>
+      </c>
+      <c r="CE221" s="1" t="s">
         <v>2743</v>
       </c>
-      <c r="CE221" s="1" t="s">
+      <c r="CG221" s="1" t="s">
         <v>2744</v>
-      </c>
-      <c r="CG221" s="1" t="s">
-        <v>2745</v>
       </c>
       <c r="CH221" s="1" t="s">
         <v>1998</v>
@@ -51779,13 +51709,13 @@
         <v>96</v>
       </c>
       <c r="K222" s="1" t="s">
+        <v>2745</v>
+      </c>
+      <c r="L222" s="1" t="s">
         <v>2746</v>
       </c>
-      <c r="L222" s="1" t="s">
+      <c r="N222" s="1" t="s">
         <v>2747</v>
-      </c>
-      <c r="N222" s="1" t="s">
-        <v>2748</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>100</v>
@@ -51863,7 +51793,7 @@
         <v>101</v>
       </c>
       <c r="AZ222" s="1" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="BB222" s="1">
         <v>5</v>
@@ -51872,7 +51802,7 @@
         <v>19</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="BE222" s="1" t="s">
         <v>113</v>
@@ -51884,7 +51814,7 @@
         <v>115</v>
       </c>
       <c r="BH222" s="1" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="BM222" s="1" t="s">
         <v>118</v>
@@ -51893,7 +51823,7 @@
         <v>105</v>
       </c>
       <c r="BT222" s="1" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="BU222" s="1" t="s">
         <v>122</v>
@@ -51911,16 +51841,16 @@
         <v>101</v>
       </c>
       <c r="CC222" s="1" t="s">
+        <v>2752</v>
+      </c>
+      <c r="CD222" s="1" t="s">
         <v>2753</v>
       </c>
-      <c r="CD222" s="1" t="s">
+      <c r="CE222" s="1" t="s">
         <v>2754</v>
       </c>
-      <c r="CE222" s="1" t="s">
+      <c r="CG222" s="1" t="s">
         <v>2755</v>
-      </c>
-      <c r="CG222" s="1" t="s">
-        <v>2756</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>130</v>
@@ -51961,13 +51891,13 @@
         <v>96</v>
       </c>
       <c r="K223" s="1" t="s">
+        <v>2756</v>
+      </c>
+      <c r="L223" s="1" t="s">
         <v>2757</v>
       </c>
-      <c r="L223" s="1" t="s">
+      <c r="N223" s="1" t="s">
         <v>2758</v>
-      </c>
-      <c r="N223" s="1" t="s">
-        <v>2759</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>100</v>
@@ -52045,7 +51975,7 @@
         <v>101</v>
       </c>
       <c r="AZ223" s="1" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="BB223" s="1">
         <v>5</v>
@@ -52054,7 +51984,7 @@
         <v>19</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="BE223" s="1" t="s">
         <v>113</v>
@@ -52066,7 +51996,7 @@
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="BI223" s="1" t="s">
         <v>384</v>
@@ -52078,7 +52008,7 @@
         <v>105</v>
       </c>
       <c r="BT223" s="1" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="BU223" s="1" t="s">
         <v>122</v>
@@ -52096,16 +52026,16 @@
         <v>101</v>
       </c>
       <c r="CC223" s="1" t="s">
-        <v>2458</v>
+        <v>2457</v>
       </c>
       <c r="CD223" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="CE223" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="CG223" s="1" t="s">
         <v>2764</v>
-      </c>
-      <c r="CG223" s="1" t="s">
-        <v>2765</v>
       </c>
       <c r="CH223" s="1" t="s">
         <v>392</v>
@@ -52146,13 +52076,13 @@
         <v>96</v>
       </c>
       <c r="K224" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="L224" s="1" t="s">
         <v>2766</v>
       </c>
-      <c r="L224" s="1" t="s">
+      <c r="N224" s="1" t="s">
         <v>2767</v>
-      </c>
-      <c r="N224" s="1" t="s">
-        <v>2768</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>100</v>
@@ -52230,7 +52160,7 @@
         <v>101</v>
       </c>
       <c r="AZ224" s="1" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="BB224" s="1">
         <v>5</v>
@@ -52239,7 +52169,7 @@
         <v>19</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="BE224" s="1" t="s">
         <v>113</v>
@@ -52251,7 +52181,7 @@
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="BM224" s="1" t="s">
         <v>118</v>
@@ -52260,7 +52190,7 @@
         <v>105</v>
       </c>
       <c r="BT224" s="1" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="BU224" s="1" t="s">
         <v>122</v>
@@ -52281,13 +52211,13 @@
         <v>1175</v>
       </c>
       <c r="CD224" s="1" t="s">
+        <v>2772</v>
+      </c>
+      <c r="CE224" s="1" t="s">
         <v>2773</v>
       </c>
-      <c r="CE224" s="1" t="s">
+      <c r="CG224" s="1" t="s">
         <v>2774</v>
-      </c>
-      <c r="CG224" s="1" t="s">
-        <v>2775</v>
       </c>
       <c r="CH224" s="1" t="s">
         <v>130</v>
@@ -52328,13 +52258,13 @@
         <v>96</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2775</v>
+      </c>
+      <c r="L225" s="1" t="s">
         <v>2776</v>
       </c>
-      <c r="L225" s="1" t="s">
+      <c r="N225" s="1" t="s">
         <v>2777</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2778</v>
       </c>
       <c r="O225" s="1" t="s">
         <v>100</v>
@@ -52412,7 +52342,7 @@
         <v>101</v>
       </c>
       <c r="AZ225" s="1" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="BB225" s="1">
         <v>5</v>
@@ -52421,7 +52351,7 @@
         <v>19</v>
       </c>
       <c r="BD225" s="1" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="BE225" s="1" t="s">
         <v>113</v>
@@ -52433,7 +52363,7 @@
         <v>115</v>
       </c>
       <c r="BH225" s="1" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="BI225" s="1" t="s">
         <v>1991</v>
@@ -52448,13 +52378,13 @@
         <v>159</v>
       </c>
       <c r="BR225" s="1" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="BS225" s="3">
         <v>37513</v>
       </c>
       <c r="BT225" s="1" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="BU225" s="1" t="s">
         <v>122</v>
@@ -52472,16 +52402,16 @@
         <v>101</v>
       </c>
       <c r="CC225" s="1" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="CD225" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE225" s="1" t="s">
+        <v>2784</v>
+      </c>
+      <c r="CG225" s="1" t="s">
         <v>2785</v>
-      </c>
-      <c r="CG225" s="1" t="s">
-        <v>2786</v>
       </c>
       <c r="CH225" s="1" t="s">
         <v>1998</v>
@@ -52522,13 +52452,13 @@
         <v>96</v>
       </c>
       <c r="K226" s="1" t="s">
+        <v>2786</v>
+      </c>
+      <c r="L226" s="1" t="s">
         <v>2787</v>
       </c>
-      <c r="L226" s="1" t="s">
+      <c r="N226" s="1" t="s">
         <v>2788</v>
-      </c>
-      <c r="N226" s="1" t="s">
-        <v>2789</v>
       </c>
       <c r="O226" s="1" t="s">
         <v>100</v>
@@ -52609,7 +52539,7 @@
         <v>19</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="BE226" s="1" t="s">
         <v>113</v>
@@ -52621,10 +52551,10 @@
         <v>115</v>
       </c>
       <c r="BH226" s="1" t="s">
+        <v>2790</v>
+      </c>
+      <c r="BI226" s="1" t="s">
         <v>2791</v>
-      </c>
-      <c r="BI226" s="1" t="s">
-        <v>2792</v>
       </c>
       <c r="BM226" s="1" t="s">
         <v>118</v>
@@ -52636,13 +52566,13 @@
         <v>102</v>
       </c>
       <c r="BR226" s="1" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="BS226" s="3">
         <v>41024</v>
       </c>
       <c r="BT226" s="1" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="BU226" s="1" t="s">
         <v>122</v>
@@ -52660,19 +52590,19 @@
         <v>101</v>
       </c>
       <c r="CC226" s="1" t="s">
+        <v>2794</v>
+      </c>
+      <c r="CD226" s="1" t="s">
         <v>2795</v>
       </c>
-      <c r="CD226" s="1" t="s">
+      <c r="CE226" s="1" t="s">
         <v>2796</v>
       </c>
-      <c r="CE226" s="1" t="s">
+      <c r="CG226" s="1" t="s">
         <v>2797</v>
       </c>
-      <c r="CG226" s="1" t="s">
+      <c r="CH226" s="1" t="s">
         <v>2798</v>
-      </c>
-      <c r="CH226" s="1" t="s">
-        <v>2799</v>
       </c>
       <c r="CI226" s="1" t="s">
         <v>130</v>
@@ -52710,13 +52640,13 @@
         <v>96</v>
       </c>
       <c r="K227" s="1" t="s">
+        <v>2799</v>
+      </c>
+      <c r="L227" s="1" t="s">
         <v>2800</v>
       </c>
-      <c r="L227" s="1" t="s">
+      <c r="N227" s="1" t="s">
         <v>2801</v>
-      </c>
-      <c r="N227" s="1" t="s">
-        <v>2802</v>
       </c>
       <c r="O227" s="1" t="s">
         <v>100</v>
@@ -52749,7 +52679,7 @@
         <v>106</v>
       </c>
       <c r="AG227" s="1" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="AH227" s="1" t="s">
         <v>2014</v>
@@ -52773,28 +52703,28 @@
         <v>110</v>
       </c>
       <c r="AQ227" s="1" t="s">
+        <v>2802</v>
+      </c>
+      <c r="AR227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV227" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY227" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AZ227" s="1" t="s">
         <v>2803</v>
-      </c>
-      <c r="AR227" s="1">
-        <v>0</v>
-      </c>
-      <c r="AS227" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT227" s="1">
-        <v>0</v>
-      </c>
-      <c r="AU227" s="1">
-        <v>0</v>
-      </c>
-      <c r="AV227" s="1">
-        <v>0</v>
-      </c>
-      <c r="AY227" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AZ227" s="1" t="s">
-        <v>2804</v>
       </c>
       <c r="BB227" s="1">
         <v>5</v>
@@ -52803,7 +52733,7 @@
         <v>19</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="BE227" s="1" t="s">
         <v>113</v>
@@ -52815,7 +52745,7 @@
         <v>115</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="BI227" s="1" t="s">
         <v>1991</v>
@@ -52830,13 +52760,13 @@
         <v>119</v>
       </c>
       <c r="BR227" s="1" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="BS227" s="3">
         <v>34808</v>
       </c>
       <c r="BT227" s="1" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="BU227" s="1" t="s">
         <v>122</v>
@@ -52854,16 +52784,16 @@
         <v>101</v>
       </c>
       <c r="CC227" s="1" t="s">
+        <v>2808</v>
+      </c>
+      <c r="CD227" s="1" t="s">
         <v>2809</v>
       </c>
-      <c r="CD227" s="1" t="s">
+      <c r="CE227" s="1" t="s">
         <v>2810</v>
       </c>
-      <c r="CE227" s="1" t="s">
+      <c r="CG227" s="1" t="s">
         <v>2811</v>
-      </c>
-      <c r="CG227" s="1" t="s">
-        <v>2812</v>
       </c>
       <c r="CH227" s="1" t="s">
         <v>1998</v>
@@ -52904,13 +52834,13 @@
         <v>96</v>
       </c>
       <c r="K228" s="1" t="s">
+        <v>2812</v>
+      </c>
+      <c r="L228" s="1" t="s">
         <v>2813</v>
       </c>
-      <c r="L228" s="1" t="s">
+      <c r="N228" s="1" t="s">
         <v>2814</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>2815</v>
       </c>
       <c r="O228" s="1" t="s">
         <v>100</v>
@@ -52985,7 +52915,7 @@
         <v>101</v>
       </c>
       <c r="AZ228" s="1" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="BB228" s="1">
         <v>5</v>
@@ -52994,7 +52924,7 @@
         <v>19</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="BE228" s="1" t="s">
         <v>113</v>
@@ -53006,10 +52936,10 @@
         <v>115</v>
       </c>
       <c r="BH228" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="BI228" s="1" t="s">
         <v>2818</v>
-      </c>
-      <c r="BI228" s="1" t="s">
-        <v>2819</v>
       </c>
       <c r="BM228" s="1" t="s">
         <v>118</v>
@@ -53021,13 +52951,13 @@
         <v>102</v>
       </c>
       <c r="BR228" s="1" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="BS228" s="3">
         <v>37336</v>
       </c>
       <c r="BT228" s="1" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="BU228" s="1" t="s">
         <v>122</v>
@@ -53045,19 +52975,19 @@
         <v>101</v>
       </c>
       <c r="CC228" s="1" t="s">
+        <v>2821</v>
+      </c>
+      <c r="CD228" s="1" t="s">
         <v>2822</v>
       </c>
-      <c r="CD228" s="1" t="s">
+      <c r="CE228" s="1" t="s">
         <v>2823</v>
       </c>
-      <c r="CE228" s="1" t="s">
+      <c r="CG228" s="1" t="s">
         <v>2824</v>
       </c>
-      <c r="CG228" s="1" t="s">
+      <c r="CH228" s="1" t="s">
         <v>2825</v>
-      </c>
-      <c r="CH228" s="1" t="s">
-        <v>2826</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>130</v>
@@ -53095,13 +53025,13 @@
         <v>96</v>
       </c>
       <c r="K229" s="1" t="s">
+        <v>2826</v>
+      </c>
+      <c r="L229" s="1" t="s">
         <v>2827</v>
       </c>
-      <c r="L229" s="1" t="s">
+      <c r="N229" s="1" t="s">
         <v>2828</v>
-      </c>
-      <c r="N229" s="1" t="s">
-        <v>2829</v>
       </c>
       <c r="O229" s="1" t="s">
         <v>100</v>
@@ -53179,7 +53109,7 @@
         <v>101</v>
       </c>
       <c r="AZ229" s="1" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="BB229" s="1">
         <v>5</v>
@@ -53188,7 +53118,7 @@
         <v>19</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="BE229" s="1" t="s">
         <v>113</v>
@@ -53200,10 +53130,10 @@
         <v>115</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="BI229" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BM229" s="1" t="s">
         <v>118</v>
@@ -53212,7 +53142,7 @@
         <v>105</v>
       </c>
       <c r="BT229" s="1" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="BU229" s="1" t="s">
         <v>122</v>
@@ -53230,19 +53160,19 @@
         <v>101</v>
       </c>
       <c r="CC229" s="1" t="s">
+        <v>2833</v>
+      </c>
+      <c r="CD229" s="1" t="s">
         <v>2834</v>
       </c>
-      <c r="CD229" s="1" t="s">
+      <c r="CE229" s="1" t="s">
         <v>2835</v>
       </c>
-      <c r="CE229" s="1" t="s">
+      <c r="CG229" s="1" t="s">
         <v>2836</v>
       </c>
-      <c r="CG229" s="1" t="s">
-        <v>2837</v>
-      </c>
       <c r="CH229" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>130</v>
@@ -53280,13 +53210,13 @@
         <v>96</v>
       </c>
       <c r="K230" s="1" t="s">
+        <v>2837</v>
+      </c>
+      <c r="L230" s="1" t="s">
         <v>2838</v>
       </c>
-      <c r="L230" s="1" t="s">
+      <c r="N230" s="1" t="s">
         <v>2839</v>
-      </c>
-      <c r="N230" s="1" t="s">
-        <v>2840</v>
       </c>
       <c r="O230" s="1" t="s">
         <v>100</v>
@@ -53370,7 +53300,7 @@
         <v>19</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="BE230" s="1" t="s">
         <v>113</v>
@@ -53382,7 +53312,7 @@
         <v>115</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="BM230" s="1" t="s">
         <v>118</v>
@@ -53391,7 +53321,7 @@
         <v>105</v>
       </c>
       <c r="BT230" s="1" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="BU230" s="1" t="s">
         <v>122</v>
@@ -53409,16 +53339,16 @@
         <v>101</v>
       </c>
       <c r="CC230" s="1" t="s">
+        <v>2843</v>
+      </c>
+      <c r="CD230" s="1" t="s">
         <v>2844</v>
       </c>
-      <c r="CD230" s="1" t="s">
+      <c r="CE230" s="1" t="s">
         <v>2845</v>
       </c>
-      <c r="CE230" s="1" t="s">
+      <c r="CG230" s="1" t="s">
         <v>2846</v>
-      </c>
-      <c r="CG230" s="1" t="s">
-        <v>2847</v>
       </c>
       <c r="CH230" s="1" t="s">
         <v>130</v>
@@ -53441,7 +53371,7 @@
         <v>90</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>92</v>
@@ -53453,16 +53383,16 @@
         <v>94</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K231" s="1" t="s">
+        <v>2849</v>
+      </c>
+      <c r="L231" s="1" t="s">
         <v>2850</v>
-      </c>
-      <c r="L231" s="1" t="s">
-        <v>2851</v>
       </c>
       <c r="O231" s="1" t="s">
         <v>110</v>
@@ -53531,7 +53461,7 @@
         <v>0</v>
       </c>
       <c r="BZ231" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="CA231" s="1" t="s">
         <v>124</v>
@@ -53543,7 +53473,7 @@
         <v>410</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="232" spans="1:87" x14ac:dyDescent="0.25">
@@ -53578,13 +53508,13 @@
         <v>96</v>
       </c>
       <c r="K232" s="1" t="s">
+        <v>2852</v>
+      </c>
+      <c r="L232" s="1" t="s">
         <v>2853</v>
       </c>
-      <c r="L232" s="1" t="s">
+      <c r="N232" s="1" t="s">
         <v>2854</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>2855</v>
       </c>
       <c r="O232" s="1" t="s">
         <v>100</v>
@@ -53619,12 +53549,7 @@
       <c r="AA232" s="1">
         <v>0</v>
       </c>
-      <c r="AC232" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD232" s="1" t="s">
-        <v>2856</v>
-      </c>
+      <c r="AC232" s="3"/>
       <c r="AF232" s="1" t="s">
         <v>106</v>
       </c>
@@ -53674,7 +53599,7 @@
         <v>101</v>
       </c>
       <c r="AZ232" s="1" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="BB232" s="1">
         <v>5</v>
@@ -53683,7 +53608,7 @@
         <v>19</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="BE232" s="1" t="s">
         <v>113</v>
@@ -53695,10 +53620,10 @@
         <v>115</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="BI232" s="1" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="BM232" s="1" t="s">
         <v>118</v>
@@ -53707,7 +53632,7 @@
         <v>105</v>
       </c>
       <c r="BT232" s="1" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="BU232" s="1" t="s">
         <v>122</v>
@@ -53731,16 +53656,16 @@
         <v>1226</v>
       </c>
       <c r="CD232" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="CE232" s="1" t="s">
+        <v>2861</v>
+      </c>
+      <c r="CG232" s="1" t="s">
         <v>2862</v>
       </c>
-      <c r="CE232" s="1" t="s">
+      <c r="CH232" s="1" t="s">
         <v>2863</v>
-      </c>
-      <c r="CG232" s="1" t="s">
-        <v>2864</v>
-      </c>
-      <c r="CH232" s="1" t="s">
-        <v>2865</v>
       </c>
       <c r="CI232" s="1" t="s">
         <v>130</v>
@@ -53778,10 +53703,10 @@
         <v>96</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="O233" s="1" t="s">
         <v>110</v>
@@ -53805,7 +53730,7 @@
         <v>106</v>
       </c>
       <c r="AG233" s="1" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="AH233" s="1" t="s">
         <v>61</v>
@@ -53850,7 +53775,7 @@
         <v>0</v>
       </c>
       <c r="BZ233" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="CA233" s="1" t="s">
         <v>124</v>
@@ -53862,7 +53787,7 @@
         <v>410</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="234" spans="1:87" x14ac:dyDescent="0.25">
@@ -53897,10 +53822,10 @@
         <v>96</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>110</v>
@@ -53987,7 +53912,7 @@
         <v>410</v>
       </c>
       <c r="CE234" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
     </row>
     <row r="235" spans="1:87" x14ac:dyDescent="0.25">
@@ -54004,7 +53929,7 @@
         <v>90</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>92</v>
@@ -54016,16 +53941,16 @@
         <v>94</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>110</v>
@@ -54094,7 +54019,7 @@
         <v>0</v>
       </c>
       <c r="BZ235" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="CA235" s="1" t="s">
         <v>124</v>
@@ -54106,7 +54031,7 @@
         <v>410</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
     </row>
     <row r="236" spans="1:87" x14ac:dyDescent="0.25">
@@ -54141,10 +54066,10 @@
         <v>96</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>110</v>
@@ -54168,7 +54093,7 @@
         <v>106</v>
       </c>
       <c r="AG236" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="AH236" s="1" t="s">
         <v>380</v>
@@ -54225,7 +54150,7 @@
         <v>410</v>
       </c>
       <c r="CE236" s="1" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
     </row>
     <row r="237" spans="1:87" x14ac:dyDescent="0.25">
@@ -54260,10 +54185,10 @@
         <v>96</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>110</v>
@@ -54287,7 +54212,7 @@
         <v>106</v>
       </c>
       <c r="AG237" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="AH237" s="1" t="s">
         <v>380</v>
@@ -54344,7 +54269,7 @@
         <v>410</v>
       </c>
       <c r="CE237" s="1" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
     </row>
     <row r="238" spans="1:87" x14ac:dyDescent="0.25">
@@ -54379,10 +54304,10 @@
         <v>96</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>110</v>
@@ -54406,7 +54331,7 @@
         <v>106</v>
       </c>
       <c r="AG238" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="AH238" s="1" t="s">
         <v>380</v>
@@ -54463,7 +54388,7 @@
         <v>410</v>
       </c>
       <c r="CE238" s="1" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
     </row>
     <row r="239" spans="1:87" x14ac:dyDescent="0.25">
@@ -54498,10 +54423,10 @@
         <v>96</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>110</v>
@@ -54525,7 +54450,7 @@
         <v>106</v>
       </c>
       <c r="AG239" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="AH239" s="1" t="s">
         <v>380</v>
@@ -54582,7 +54507,7 @@
         <v>410</v>
       </c>
       <c r="CE239" s="1" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="240" spans="1:87" x14ac:dyDescent="0.25">
@@ -54617,10 +54542,10 @@
         <v>96</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>110</v>
@@ -54701,7 +54626,7 @@
         <v>410</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="241" spans="1:87" x14ac:dyDescent="0.25">
@@ -54736,10 +54661,10 @@
         <v>96</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>110</v>
@@ -54820,7 +54745,7 @@
         <v>410</v>
       </c>
       <c r="CE241" s="1" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="242" spans="1:87" x14ac:dyDescent="0.25">
@@ -54855,10 +54780,10 @@
         <v>96</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>110</v>
@@ -54939,7 +54864,7 @@
         <v>410</v>
       </c>
       <c r="CE242" s="1" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="243" spans="1:87" x14ac:dyDescent="0.25">
@@ -54974,10 +54899,10 @@
         <v>96</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>110</v>
@@ -55058,7 +54983,7 @@
         <v>410</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="244" spans="1:87" x14ac:dyDescent="0.25">
@@ -55093,13 +55018,13 @@
         <v>96</v>
       </c>
       <c r="K244" s="1" t="s">
+        <v>2889</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>2890</v>
+      </c>
+      <c r="N244" s="1" t="s">
         <v>2891</v>
-      </c>
-      <c r="L244" s="1" t="s">
-        <v>2892</v>
-      </c>
-      <c r="N244" s="1" t="s">
-        <v>2893</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>100</v>
@@ -55128,12 +55053,7 @@
       <c r="AA244" s="1">
         <v>0</v>
       </c>
-      <c r="AC244" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD244" s="1" t="s">
-        <v>2856</v>
-      </c>
+      <c r="AC244" s="3"/>
       <c r="AF244" s="1" t="s">
         <v>106</v>
       </c>
@@ -55186,7 +55106,7 @@
         <v>19</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="BE244" s="1" t="s">
         <v>113</v>
@@ -55198,7 +55118,7 @@
         <v>115</v>
       </c>
       <c r="BH244" s="1" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="BI244" s="1" t="s">
         <v>879</v>
@@ -55213,13 +55133,13 @@
         <v>102</v>
       </c>
       <c r="BR244" s="1" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="BS244" s="3">
         <v>36306</v>
       </c>
       <c r="BT244" s="1" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="BU244" s="1" t="s">
         <v>122</v>
@@ -55237,16 +55157,16 @@
         <v>101</v>
       </c>
       <c r="CC244" s="1" t="s">
+        <v>2896</v>
+      </c>
+      <c r="CD244" s="1" t="s">
+        <v>2897</v>
+      </c>
+      <c r="CE244" s="1" t="s">
         <v>2898</v>
       </c>
-      <c r="CD244" s="1" t="s">
+      <c r="CG244" s="1" t="s">
         <v>2899</v>
-      </c>
-      <c r="CE244" s="1" t="s">
-        <v>2900</v>
-      </c>
-      <c r="CG244" s="1" t="s">
-        <v>2901</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>884</v>
@@ -55287,13 +55207,13 @@
         <v>96</v>
       </c>
       <c r="K245" s="1" t="s">
+        <v>2900</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>2901</v>
+      </c>
+      <c r="N245" s="1" t="s">
         <v>2902</v>
-      </c>
-      <c r="L245" s="1" t="s">
-        <v>2903</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>2904</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>100</v>
@@ -55322,12 +55242,7 @@
       <c r="AA245" s="1">
         <v>0</v>
       </c>
-      <c r="AC245" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD245" s="1" t="s">
-        <v>2856</v>
-      </c>
+      <c r="AC245" s="3"/>
       <c r="AF245" s="1" t="s">
         <v>106</v>
       </c>
@@ -55383,7 +55298,7 @@
         <v>19</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="BE245" s="1" t="s">
         <v>113</v>
@@ -55395,7 +55310,7 @@
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="BM245" s="1" t="s">
         <v>118</v>
@@ -55404,7 +55319,7 @@
         <v>105</v>
       </c>
       <c r="BT245" s="1" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="BU245" s="1" t="s">
         <v>122</v>
@@ -55422,16 +55337,16 @@
         <v>101</v>
       </c>
       <c r="CC245" s="1" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="CD245" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CE245" s="1" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="CG245" s="1" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="CH245" s="1" t="s">
         <v>130</v>
@@ -55472,13 +55387,13 @@
         <v>96</v>
       </c>
       <c r="K246" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="N246" s="1" t="s">
         <v>2911</v>
-      </c>
-      <c r="L246" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="N246" s="1" t="s">
-        <v>2913</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>100</v>
@@ -55510,12 +55425,7 @@
       <c r="AB246" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="AC246" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD246" s="1" t="s">
-        <v>2856</v>
-      </c>
+      <c r="AC246" s="3"/>
       <c r="AF246" s="1" t="s">
         <v>106</v>
       </c>
@@ -55568,7 +55478,7 @@
         <v>19</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="BE246" s="1" t="s">
         <v>113</v>
@@ -55580,7 +55490,7 @@
         <v>115</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="BI246" s="1" t="s">
         <v>384</v>
@@ -55595,13 +55505,13 @@
         <v>102</v>
       </c>
       <c r="BR246" s="1" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="BS246" s="3">
         <v>38234</v>
       </c>
       <c r="BT246" s="1" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="BU246" s="1" t="s">
         <v>122</v>
@@ -55619,16 +55529,16 @@
         <v>101</v>
       </c>
       <c r="CC246" s="1" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="CD246" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="CE246" s="1" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="CG246" s="1" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="CH246" s="1" t="s">
         <v>392</v>
@@ -55669,13 +55579,13 @@
         <v>96</v>
       </c>
       <c r="K247" s="1" t="s">
+        <v>2919</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>2920</v>
+      </c>
+      <c r="N247" s="1" t="s">
         <v>2921</v>
-      </c>
-      <c r="L247" s="1" t="s">
-        <v>2922</v>
-      </c>
-      <c r="N247" s="1" t="s">
-        <v>2923</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>100</v>
@@ -55704,12 +55614,7 @@
       <c r="AA247" s="1">
         <v>0</v>
       </c>
-      <c r="AC247" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD247" s="1" t="s">
-        <v>2856</v>
-      </c>
+      <c r="AC247" s="3"/>
       <c r="AF247" s="1" t="s">
         <v>106</v>
       </c>
@@ -55765,7 +55670,7 @@
         <v>19</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="BE247" s="1" t="s">
         <v>113</v>
@@ -55777,10 +55682,10 @@
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="BI247" s="1" t="s">
-        <v>2469</v>
+        <v>2468</v>
       </c>
       <c r="BM247" s="1" t="s">
         <v>118</v>
@@ -55789,7 +55694,7 @@
         <v>105</v>
       </c>
       <c r="BT247" s="1" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="BU247" s="1" t="s">
         <v>122</v>
@@ -55807,19 +55712,19 @@
         <v>101</v>
       </c>
       <c r="CC247" s="1" t="s">
+        <v>2925</v>
+      </c>
+      <c r="CD247" s="1" t="s">
+        <v>2926</v>
+      </c>
+      <c r="CE247" s="1" t="s">
         <v>2927</v>
       </c>
-      <c r="CD247" s="1" t="s">
+      <c r="CG247" s="1" t="s">
         <v>2928</v>
       </c>
-      <c r="CE247" s="1" t="s">
-        <v>2929</v>
-      </c>
-      <c r="CG247" s="1" t="s">
-        <v>2930</v>
-      </c>
       <c r="CH247" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="CI247" s="1" t="s">
         <v>130</v>
@@ -55857,13 +55762,13 @@
         <v>96</v>
       </c>
       <c r="K248" s="1" t="s">
+        <v>2929</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>2930</v>
+      </c>
+      <c r="N248" s="1" t="s">
         <v>2931</v>
-      </c>
-      <c r="L248" s="1" t="s">
-        <v>2932</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>2933</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>100</v>
@@ -55895,12 +55800,7 @@
       <c r="AB248" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="AC248" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD248" s="1" t="s">
-        <v>2856</v>
-      </c>
+      <c r="AC248" s="3"/>
       <c r="AE248" s="3">
         <v>43611</v>
       </c>
@@ -55959,7 +55859,7 @@
         <v>19</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="BE248" s="1" t="s">
         <v>113</v>
@@ -55971,10 +55871,10 @@
         <v>115</v>
       </c>
       <c r="BH248" s="1" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="BI248" s="1" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="BM248" s="1" t="s">
         <v>118</v>
@@ -55983,7 +55883,7 @@
         <v>105</v>
       </c>
       <c r="BT248" s="1" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="BU248" s="1" t="s">
         <v>122</v>
@@ -56001,19 +55901,19 @@
         <v>101</v>
       </c>
       <c r="CC248" s="1" t="s">
+        <v>2936</v>
+      </c>
+      <c r="CD248" s="1" t="s">
+        <v>2937</v>
+      </c>
+      <c r="CE248" s="1" t="s">
         <v>2938</v>
       </c>
-      <c r="CD248" s="1" t="s">
+      <c r="CG248" s="1" t="s">
         <v>2939</v>
       </c>
-      <c r="CE248" s="1" t="s">
+      <c r="CH248" s="1" t="s">
         <v>2940</v>
-      </c>
-      <c r="CG248" s="1" t="s">
-        <v>2941</v>
-      </c>
-      <c r="CH248" s="1" t="s">
-        <v>2942</v>
       </c>
       <c r="CI248" s="1" t="s">
         <v>130</v>
@@ -56051,13 +55951,13 @@
         <v>96</v>
       </c>
       <c r="K249" s="1" t="s">
+        <v>2941</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>2942</v>
+      </c>
+      <c r="N249" s="1" t="s">
         <v>2943</v>
-      </c>
-      <c r="L249" s="1" t="s">
-        <v>2944</v>
-      </c>
-      <c r="N249" s="1" t="s">
-        <v>2945</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>100</v>
@@ -56086,12 +55986,7 @@
       <c r="AA249" s="1">
         <v>0</v>
       </c>
-      <c r="AC249" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD249" s="1" t="s">
-        <v>2856</v>
-      </c>
+      <c r="AC249" s="3"/>
       <c r="AF249" s="1" t="s">
         <v>106</v>
       </c>
@@ -56144,7 +56039,7 @@
         <v>19</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
       <c r="BE249" s="1" t="s">
         <v>113</v>
@@ -56156,7 +56051,7 @@
         <v>115</v>
       </c>
       <c r="BH249" s="1" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="BI249" s="1" t="s">
         <v>613</v>
@@ -56171,13 +56066,13 @@
         <v>219</v>
       </c>
       <c r="BR249" s="1" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="BS249" s="3">
         <v>37069</v>
       </c>
       <c r="BT249" s="1" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="BU249" s="1" t="s">
         <v>122</v>
@@ -56198,13 +56093,13 @@
         <v>781</v>
       </c>
       <c r="CD249" s="1" t="s">
+        <v>2948</v>
+      </c>
+      <c r="CE249" s="1" t="s">
+        <v>2949</v>
+      </c>
+      <c r="CG249" s="1" t="s">
         <v>2950</v>
-      </c>
-      <c r="CE249" s="1" t="s">
-        <v>2951</v>
-      </c>
-      <c r="CG249" s="1" t="s">
-        <v>2952</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>620</v>
@@ -56245,13 +56140,13 @@
         <v>96</v>
       </c>
       <c r="K250" s="1" t="s">
+        <v>2951</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>2952</v>
+      </c>
+      <c r="N250" s="1" t="s">
         <v>2953</v>
-      </c>
-      <c r="L250" s="1" t="s">
-        <v>2954</v>
-      </c>
-      <c r="N250" s="1" t="s">
-        <v>2955</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>100</v>
@@ -56280,12 +56175,7 @@
       <c r="AA250" s="1">
         <v>0</v>
       </c>
-      <c r="AC250" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD250" s="1" t="s">
-        <v>2856</v>
-      </c>
+      <c r="AC250" s="3"/>
       <c r="AF250" s="1" t="s">
         <v>106</v>
       </c>
@@ -56341,7 +56231,7 @@
         <v>19</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
       <c r="BE250" s="1" t="s">
         <v>113</v>
@@ -56365,7 +56255,7 @@
         <v>105</v>
       </c>
       <c r="BT250" s="1" t="s">
-        <v>2957</v>
+        <v>2955</v>
       </c>
       <c r="BU250" s="1" t="s">
         <v>122</v>
@@ -56383,13 +56273,13 @@
         <v>101</v>
       </c>
       <c r="CC250" s="1" t="s">
+        <v>2956</v>
+      </c>
+      <c r="CD250" s="1" t="s">
+        <v>2957</v>
+      </c>
+      <c r="CE250" s="1" t="s">
         <v>2958</v>
-      </c>
-      <c r="CD250" s="1" t="s">
-        <v>2959</v>
-      </c>
-      <c r="CE250" s="1" t="s">
-        <v>2960</v>
       </c>
       <c r="CG250" s="1" t="s">
         <v>1080</v>
@@ -56433,13 +56323,13 @@
         <v>96</v>
       </c>
       <c r="K251" s="1" t="s">
+        <v>2959</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>2960</v>
+      </c>
+      <c r="N251" s="1" t="s">
         <v>2961</v>
-      </c>
-      <c r="L251" s="1" t="s">
-        <v>2962</v>
-      </c>
-      <c r="N251" s="1" t="s">
-        <v>2963</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>100</v>
@@ -56475,7 +56365,7 @@
         <v>43403</v>
       </c>
       <c r="AD251" s="1" t="s">
-        <v>2964</v>
+        <v>2962</v>
       </c>
       <c r="AE251" s="3">
         <v>43585</v>
@@ -56529,7 +56419,7 @@
         <v>101</v>
       </c>
       <c r="AZ251" s="1" t="s">
-        <v>2965</v>
+        <v>2963</v>
       </c>
       <c r="BB251" s="1">
         <v>5</v>
@@ -56538,13 +56428,13 @@
         <v>19</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>2966</v>
+        <v>2964</v>
       </c>
       <c r="BG251" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH251" s="1" t="s">
-        <v>2967</v>
+        <v>2965</v>
       </c>
       <c r="BM251" s="1" t="s">
         <v>118</v>
@@ -56553,7 +56443,7 @@
         <v>105</v>
       </c>
       <c r="BT251" s="1" t="s">
-        <v>2968</v>
+        <v>2966</v>
       </c>
       <c r="BU251" s="1" t="s">
         <v>122</v>
@@ -56571,16 +56461,16 @@
         <v>101</v>
       </c>
       <c r="CC251" s="1" t="s">
-        <v>2969</v>
+        <v>2967</v>
       </c>
       <c r="CD251" s="1" t="s">
         <v>2106</v>
       </c>
       <c r="CE251" s="1" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="CG251" s="1" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -56621,13 +56511,13 @@
         <v>96</v>
       </c>
       <c r="K252" s="1" t="s">
+        <v>2970</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>2971</v>
+      </c>
+      <c r="N252" s="1" t="s">
         <v>2972</v>
-      </c>
-      <c r="L252" s="1" t="s">
-        <v>2973</v>
-      </c>
-      <c r="N252" s="1" t="s">
-        <v>2974</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>100</v>
@@ -56656,12 +56546,7 @@
       <c r="AA252" s="1">
         <v>0</v>
       </c>
-      <c r="AC252" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD252" s="1" t="s">
-        <v>2975</v>
-      </c>
+      <c r="AC252" s="3"/>
       <c r="AF252" s="1" t="s">
         <v>106</v>
       </c>
@@ -56708,7 +56593,7 @@
         <v>101</v>
       </c>
       <c r="AZ252" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="BB252" s="1">
         <v>5</v>
@@ -56717,7 +56602,7 @@
         <v>19</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="BE252" s="1" t="s">
         <v>113</v>
@@ -56729,10 +56614,10 @@
         <v>115</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="BI252" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="BJ252" s="1" t="s">
         <v>319</v>
@@ -56747,13 +56632,13 @@
         <v>219</v>
       </c>
       <c r="BR252" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="BS252" s="3">
         <v>35125</v>
       </c>
       <c r="BT252" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="BU252" s="1" t="s">
         <v>122</v>
@@ -56771,19 +56656,19 @@
         <v>101</v>
       </c>
       <c r="CC252" s="1" t="s">
-        <v>2982</v>
+        <v>2979</v>
       </c>
       <c r="CD252" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>2983</v>
+        <v>2980</v>
       </c>
       <c r="CG252" s="1" t="s">
-        <v>2984</v>
+        <v>2981</v>
       </c>
       <c r="CH252" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="CI252" s="1" t="s">
         <v>327</v>
@@ -56821,13 +56706,13 @@
         <v>96</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>100</v>
@@ -56911,7 +56796,7 @@
         <v>19</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>115</v>
@@ -56920,7 +56805,7 @@
         <v>118</v>
       </c>
       <c r="BT253" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="BU253" s="1" t="s">
         <v>122</v>
@@ -56938,13 +56823,13 @@
         <v>92</v>
       </c>
       <c r="CC253" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="CE253" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="CG253" s="1" t="s">
         <v>130</v>
@@ -56988,13 +56873,13 @@
         <v>96</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>100</v>
@@ -57078,7 +56963,7 @@
         <v>19</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>115</v>
@@ -57087,7 +56972,7 @@
         <v>118</v>
       </c>
       <c r="BT254" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="BU254" s="1" t="s">
         <v>122</v>
@@ -57108,10 +56993,10 @@
         <v>578</v>
       </c>
       <c r="CD254" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="CE254" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="CG254" s="1" t="s">
         <v>130</v>
@@ -57155,13 +57040,13 @@
         <v>96</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>100</v>
@@ -57194,7 +57079,7 @@
         <v>106</v>
       </c>
       <c r="AG255" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="AH255" s="1" t="s">
         <v>2247</v>
@@ -57245,7 +57130,7 @@
         <v>19</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>115</v>
@@ -57257,7 +57142,7 @@
         <v>159</v>
       </c>
       <c r="BT255" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="BU255" s="1" t="s">
         <v>122</v>
@@ -57275,13 +57160,13 @@
         <v>101</v>
       </c>
       <c r="CC255" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="CD255" s="1" t="s">
         <v>1005</v>
       </c>
       <c r="CE255" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="CG255" s="1" t="s">
         <v>130</v>
@@ -57325,13 +57210,13 @@
         <v>96</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>100</v>
@@ -57418,7 +57303,7 @@
         <v>19</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>115</v>
@@ -57427,7 +57312,7 @@
         <v>118</v>
       </c>
       <c r="BT256" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="BU256" s="1" t="s">
         <v>122</v>
@@ -57436,7 +57321,7 @@
         <v>0</v>
       </c>
       <c r="BZ256" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="CA256" s="1" t="s">
         <v>124</v>
@@ -57445,13 +57330,13 @@
         <v>101</v>
       </c>
       <c r="CC256" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="CD256" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="CE256" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="CG256" s="1" t="s">
         <v>130</v>
@@ -57489,7 +57374,7 @@
         <v>94</v>
       </c>
       <c r="I257" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>96</v>
@@ -57498,10 +57383,10 @@
         <v>250</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N257" s="1" t="s">
         <v>252</v>
@@ -57531,7 +57416,7 @@
         <v>42582</v>
       </c>
       <c r="AD257" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="AF257" s="1" t="s">
         <v>106</v>
@@ -57588,13 +57473,13 @@
         <v>0</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="BI257" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="BM257" s="1" t="s">
         <v>118</v>
@@ -57636,10 +57521,10 @@
         <v>262</v>
       </c>
       <c r="CG257" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CH257" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="CI257" s="1" t="s">
         <v>130</v>
@@ -57659,7 +57544,7 @@
         <v>228</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="F258" s="1" t="s">
         <v>92</v>
@@ -57677,16 +57562,16 @@
         <v>96</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="Q258" s="3">
         <v>17060</v>
@@ -57719,13 +57604,13 @@
         <v>42628</v>
       </c>
       <c r="AD258" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="AF258" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG258" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="AH258" s="1" t="s">
         <v>138</v>
@@ -57770,22 +57655,22 @@
         <v>101</v>
       </c>
       <c r="AZ258" s="1" t="s">
+        <v>3029</v>
+      </c>
+      <c r="BB258" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC258" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD258" s="1" t="s">
+        <v>3030</v>
+      </c>
+      <c r="BH258" s="1" t="s">
+        <v>3031</v>
+      </c>
+      <c r="BI258" s="1" t="s">
         <v>3032</v>
-      </c>
-      <c r="BB258" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC258" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD258" s="1" t="s">
-        <v>3033</v>
-      </c>
-      <c r="BH258" s="1" t="s">
-        <v>3034</v>
-      </c>
-      <c r="BI258" s="1" t="s">
-        <v>3035</v>
       </c>
       <c r="BM258" s="1" t="s">
         <v>118</v>
@@ -57794,7 +57679,7 @@
         <v>105</v>
       </c>
       <c r="BT258" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BU258" s="1" t="s">
         <v>122</v>
@@ -57803,7 +57688,7 @@
         <v>0</v>
       </c>
       <c r="BZ258" s="1" t="s">
-        <v>3037</v>
+        <v>3034</v>
       </c>
       <c r="CA258" s="1" t="s">
         <v>124</v>
@@ -57818,13 +57703,13 @@
         <v>126</v>
       </c>
       <c r="CE258" s="1" t="s">
-        <v>3038</v>
+        <v>3035</v>
       </c>
       <c r="CG258" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CH258" s="1" t="s">
-        <v>3039</v>
+        <v>3036</v>
       </c>
       <c r="CI258" s="1" t="s">
         <v>130</v>
@@ -57844,7 +57729,7 @@
         <v>228</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="F259" s="1" t="s">
         <v>101</v>
@@ -57862,16 +57747,16 @@
         <v>96</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N259" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="Q259" s="3">
         <v>26864</v>
@@ -57901,7 +57786,7 @@
         <v>42735</v>
       </c>
       <c r="AD259" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="AF259" s="1" t="s">
         <v>106</v>
@@ -57955,10 +57840,10 @@
         <v>0</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BH259" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BM259" s="1" t="s">
         <v>118</v>
@@ -57970,13 +57855,13 @@
         <v>219</v>
       </c>
       <c r="BR259" s="1" t="s">
-        <v>3047</v>
+        <v>3044</v>
       </c>
       <c r="BS259" s="3">
         <v>102</v>
       </c>
       <c r="BT259" s="1" t="s">
-        <v>3048</v>
+        <v>3045</v>
       </c>
       <c r="BU259" s="1" t="s">
         <v>122</v>
@@ -57997,16 +57882,16 @@
         <v>101</v>
       </c>
       <c r="CC259" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="CD259" s="1" t="s">
+        <v>3047</v>
+      </c>
+      <c r="CE259" s="1" t="s">
+        <v>3048</v>
+      </c>
+      <c r="CG259" s="1" t="s">
         <v>3049</v>
-      </c>
-      <c r="CD259" s="1" t="s">
-        <v>3050</v>
-      </c>
-      <c r="CE259" s="1" t="s">
-        <v>3051</v>
-      </c>
-      <c r="CG259" s="1" t="s">
-        <v>3052</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -58047,16 +57932,16 @@
         <v>96</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N260" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="Q260" s="3">
         <v>25379</v>
@@ -58086,7 +57971,7 @@
         <v>39800</v>
       </c>
       <c r="AD260" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="AF260" s="1" t="s">
         <v>234</v>
@@ -58140,10 +58025,10 @@
         <v>0</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="BH260" s="1" t="s">
-        <v>3058</v>
+        <v>3055</v>
       </c>
       <c r="BM260" s="1" t="s">
         <v>118</v>
@@ -58155,13 +58040,13 @@
         <v>407</v>
       </c>
       <c r="BR260" s="1" t="s">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="BS260" s="3">
         <v>35915</v>
       </c>
       <c r="BT260" s="1" t="s">
-        <v>3060</v>
+        <v>3057</v>
       </c>
       <c r="BU260" s="1" t="s">
         <v>122</v>
@@ -58191,7 +58076,7 @@
         <v>446</v>
       </c>
       <c r="CE260" s="1" t="s">
-        <v>3061</v>
+        <v>3058</v>
       </c>
       <c r="CG260" s="1" t="s">
         <v>2318</v>
@@ -58217,7 +58102,7 @@
         <v>90</v>
       </c>
       <c r="E261" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="F261" s="1" t="s">
         <v>101</v>
@@ -58229,22 +58114,22 @@
         <v>94</v>
       </c>
       <c r="I261" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="Q261" s="3">
         <v>17470</v>
@@ -58274,7 +58159,7 @@
         <v>43100</v>
       </c>
       <c r="AD261" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="AF261" s="1" t="s">
         <v>106</v>
@@ -58331,10 +58216,10 @@
         <v>0</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="BH261" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="BM261" s="1" t="s">
         <v>118</v>
@@ -58343,7 +58228,7 @@
         <v>105</v>
       </c>
       <c r="BT261" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="BU261" s="1" t="s">
         <v>122</v>
@@ -58367,13 +58252,13 @@
         <v>101</v>
       </c>
       <c r="CC261" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="CE261" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="CG261" s="1" t="s">
         <v>2318</v>
@@ -58417,16 +58302,16 @@
         <v>96</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="Q262" s="3">
         <v>23356</v>
@@ -58453,7 +58338,7 @@
         <v>43105</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>106</v>
@@ -58507,10 +58392,10 @@
         <v>0</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="BM262" s="1" t="s">
         <v>118</v>
@@ -58522,13 +58407,13 @@
         <v>102</v>
       </c>
       <c r="BR262" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="BS262" s="3">
         <v>34412</v>
       </c>
       <c r="BT262" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="BU262" s="1" t="s">
         <v>122</v>
@@ -58546,16 +58431,16 @@
         <v>101</v>
       </c>
       <c r="CC262" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="CD262" s="1" t="s">
         <v>2412</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="CG262" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>130</v>
@@ -58596,16 +58481,16 @@
         <v>96</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="Q263" s="3">
         <v>17726</v>
@@ -58638,7 +58523,7 @@
         <v>43312</v>
       </c>
       <c r="AD263" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="AF263" s="1" t="s">
         <v>234</v>
@@ -58689,7 +58574,7 @@
         <v>101</v>
       </c>
       <c r="AZ263" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="BB263" s="1">
         <v>0</v>
@@ -58698,10 +58583,10 @@
         <v>0</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="BH263" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="BM263" s="1" t="s">
         <v>118</v>
@@ -58710,7 +58595,7 @@
         <v>105</v>
       </c>
       <c r="BT263" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="BU263" s="1" t="s">
         <v>122</v>
@@ -58728,16 +58613,16 @@
         <v>101</v>
       </c>
       <c r="CC263" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="CE263" s="1" t="s">
         <v>942</v>
       </c>
       <c r="CG263" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -58778,16 +58663,16 @@
         <v>96</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="Q264" s="3">
         <v>22645</v>
@@ -58814,13 +58699,13 @@
         <v>43298</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG264" s="1" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="AH264" s="1" t="s">
         <v>61</v>
@@ -58868,13 +58753,13 @@
         <v>0</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="BI264" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="BM264" s="1" t="s">
         <v>118</v>
@@ -58883,13 +58768,13 @@
         <v>102</v>
       </c>
       <c r="BR264" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="BS264" s="3">
         <v>35209</v>
       </c>
       <c r="BT264" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="BU264" s="1" t="s">
         <v>122</v>
@@ -58898,7 +58783,7 @@
         <v>0</v>
       </c>
       <c r="BZ264" s="1" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="CA264" s="1" t="s">
         <v>124</v>
@@ -58910,16 +58795,16 @@
         <v>1744</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="CE264" s="1" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="CG264" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="CH264" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="CI264" s="1" t="s">
         <v>130</v>
@@ -58939,7 +58824,7 @@
         <v>90</v>
       </c>
       <c r="E265" s="1" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="F265" s="1" t="s">
         <v>92</v>
@@ -58951,22 +58836,22 @@
         <v>94</v>
       </c>
       <c r="I265" s="1" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>96</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="Q265" s="3">
         <v>17041</v>
@@ -58993,7 +58878,7 @@
         <v>42735</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>106</v>
@@ -59050,10 +58935,10 @@
         <v>0</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="BM265" s="1" t="s">
         <v>118</v>
@@ -59062,7 +58947,7 @@
         <v>105</v>
       </c>
       <c r="BT265" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="BU265" s="1" t="s">
         <v>122</v>
@@ -59074,7 +58959,7 @@
         <v>110</v>
       </c>
       <c r="BZ265" s="1" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="CA265" s="1" t="s">
         <v>124</v>
@@ -59083,13 +58968,13 @@
         <v>101</v>
       </c>
       <c r="CC265" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="CD265" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="CE265" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="CG265" s="1" t="s">
         <v>2319</v>
@@ -59133,16 +59018,16 @@
         <v>96</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="Q266" s="3">
         <v>30147</v>
@@ -59165,17 +59050,12 @@
       <c r="AA266" s="1">
         <v>0</v>
       </c>
-      <c r="AC266" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD266" s="1" t="s">
-        <v>2856</v>
-      </c>
+      <c r="AC266" s="3"/>
       <c r="AF266" s="1" t="s">
         <v>106</v>
       </c>
       <c r="AG266" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="AH266" s="1" t="s">
         <v>380</v>
@@ -59223,10 +59103,10 @@
         <v>0</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="BM266" s="1" t="s">
         <v>118</v>
@@ -59238,13 +59118,13 @@
         <v>102</v>
       </c>
       <c r="BR266" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="BS266" s="3">
         <v>37124</v>
       </c>
       <c r="BT266" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="BU266" s="1" t="s">
         <v>122</v>
@@ -59262,16 +59142,16 @@
         <v>101</v>
       </c>
       <c r="CC266" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="CD266" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="CG266" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>130</v>
@@ -59312,16 +59192,16 @@
         <v>96</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="Q267" s="3">
         <v>17821</v>
@@ -59357,7 +59237,7 @@
         <v>43388</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>106</v>
@@ -59408,7 +59288,7 @@
         <v>101</v>
       </c>
       <c r="AZ267" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="BB267" s="1">
         <v>0</v>
@@ -59417,10 +59297,10 @@
         <v>0</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BM267" s="1" t="s">
         <v>118</v>
@@ -59429,7 +59309,7 @@
         <v>105</v>
       </c>
       <c r="BT267" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BU267" s="1" t="s">
         <v>122</v>
@@ -59447,16 +59327,16 @@
         <v>101</v>
       </c>
       <c r="CC267" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="CE267" s="1" t="s">
         <v>518</v>
       </c>
       <c r="CG267" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="CH267" s="1" t="s">
         <v>130</v>
@@ -59470,10 +59350,10 @@
         <v>87</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>1296</v>
@@ -59488,7 +59368,7 @@
         <v>93</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I268" s="1" t="s">
         <v>1296</v>
@@ -59497,13 +59377,13 @@
         <v>810</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>100</v>
@@ -59554,7 +59434,7 @@
         <v>0</v>
       </c>
       <c r="AN268" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="AO268" s="1">
         <v>0</v>
@@ -59590,7 +59470,7 @@
         <v>19</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="BE268" s="1" t="s">
         <v>113</v>
@@ -59602,13 +59482,13 @@
         <v>115</v>
       </c>
       <c r="BH268" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="BM268" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT268" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="BU268" s="1" t="s">
         <v>122</v>
@@ -59635,10 +59515,10 @@
         <v>1124</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="CG268" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>130</v>
@@ -59676,19 +59556,19 @@
         <v>1626</v>
       </c>
       <c r="J269" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="M269" s="1" t="s">
         <v>102</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>100</v>
@@ -59775,7 +59655,7 @@
         <v>19</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="BG269" s="1" t="s">
         <v>115</v>
@@ -59784,7 +59664,7 @@
         <v>118</v>
       </c>
       <c r="BT269" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="BU269" s="1" t="s">
         <v>122</v>
@@ -59793,7 +59673,7 @@
         <v>0</v>
       </c>
       <c r="BZ269" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="CA269" s="1" t="s">
         <v>124</v>
@@ -59805,10 +59685,10 @@
         <v>1287</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="CG269" s="1" t="s">
         <v>130</v>
@@ -59825,10 +59705,10 @@
         <v>87</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>1296</v>
@@ -59843,7 +59723,7 @@
         <v>93</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I270" s="1" t="s">
         <v>1296</v>
@@ -59852,13 +59732,13 @@
         <v>810</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>100</v>
@@ -59909,7 +59789,7 @@
         <v>0</v>
       </c>
       <c r="AN270" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="AO270" s="1">
         <v>0</v>
@@ -59945,7 +59825,7 @@
         <v>19</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="BE270" s="1" t="s">
         <v>113</v>
@@ -59957,13 +59837,13 @@
         <v>115</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="BM270" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT270" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="BU270" s="1" t="s">
         <v>122</v>
@@ -59984,16 +59864,16 @@
         <v>92</v>
       </c>
       <c r="CC270" s="1" t="s">
+        <v>3157</v>
+      </c>
+      <c r="CD270" s="1" t="s">
+        <v>3158</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3159</v>
+      </c>
+      <c r="CG270" s="1" t="s">
         <v>3160</v>
-      </c>
-      <c r="CD270" s="1" t="s">
-        <v>3161</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3162</v>
-      </c>
-      <c r="CG270" s="1" t="s">
-        <v>3163</v>
       </c>
       <c r="CH270" s="1" t="s">
         <v>130</v>
@@ -60007,10 +59887,10 @@
         <v>87</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1296</v>
@@ -60025,7 +59905,7 @@
         <v>93</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1296</v>
@@ -60034,13 +59914,13 @@
         <v>810</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>100</v>
@@ -60127,7 +60007,7 @@
         <v>19</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="BE271" s="1" t="s">
         <v>113</v>
@@ -60139,13 +60019,13 @@
         <v>115</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="BM271" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT271" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="BU271" s="1" t="s">
         <v>122</v>
@@ -60166,7 +60046,7 @@
         <v>101</v>
       </c>
       <c r="CC271" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="CD271" s="1" t="s">
         <v>617</v>
@@ -60175,7 +60055,7 @@
         <v>518</v>
       </c>
       <c r="CG271" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="CH271" s="1" t="s">
         <v>130</v>
@@ -60189,10 +60069,10 @@
         <v>87</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>1296</v>
@@ -60207,7 +60087,7 @@
         <v>93</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I272" s="1" t="s">
         <v>1296</v>
@@ -60216,13 +60096,13 @@
         <v>810</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>3173</v>
+        <v>3170</v>
       </c>
       <c r="N272" s="1" t="s">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>100</v>
@@ -60276,7 +60156,7 @@
         <v>0</v>
       </c>
       <c r="AN272" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="AO272" s="1">
         <v>0</v>
@@ -60312,7 +60192,7 @@
         <v>19</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3176</v>
+        <v>3173</v>
       </c>
       <c r="BE272" s="1" t="s">
         <v>113</v>
@@ -60324,13 +60204,13 @@
         <v>115</v>
       </c>
       <c r="BH272" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="BM272" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT272" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="BU272" s="1" t="s">
         <v>122</v>
@@ -60354,13 +60234,13 @@
         <v>502</v>
       </c>
       <c r="CD272" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="CE272" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="CG272" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="CH272" s="1" t="s">
         <v>130</v>
@@ -60374,10 +60254,10 @@
         <v>87</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>1296</v>
@@ -60392,7 +60272,7 @@
         <v>93</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I273" s="1" t="s">
         <v>1296</v>
@@ -60401,13 +60281,13 @@
         <v>810</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>100</v>
@@ -60494,7 +60374,7 @@
         <v>19</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="BE273" s="1" t="s">
         <v>113</v>
@@ -60506,13 +60386,13 @@
         <v>115</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="BM273" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT273" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="BU273" s="1" t="s">
         <v>122</v>
@@ -60533,16 +60413,16 @@
         <v>101</v>
       </c>
       <c r="CC273" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="CD273" s="1" t="s">
         <v>628</v>
       </c>
       <c r="CE273" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="CG273" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="CH273" s="1" t="s">
         <v>130</v>
@@ -60556,10 +60436,10 @@
         <v>87</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>1296</v>
@@ -60574,7 +60454,7 @@
         <v>93</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I274" s="1" t="s">
         <v>1296</v>
@@ -60583,13 +60463,13 @@
         <v>810</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>100</v>
@@ -60625,7 +60505,7 @@
         <v>106</v>
       </c>
       <c r="AG274" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="AH274" s="1" t="s">
         <v>554</v>
@@ -60643,7 +60523,7 @@
         <v>0</v>
       </c>
       <c r="AN274" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="AO274" s="1">
         <v>0</v>
@@ -60679,7 +60559,7 @@
         <v>19</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="BE274" s="1" t="s">
         <v>113</v>
@@ -60691,13 +60571,13 @@
         <v>115</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="BM274" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT274" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="BU274" s="1" t="s">
         <v>122</v>
@@ -60718,16 +60598,16 @@
         <v>101</v>
       </c>
       <c r="CC274" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="CD274" s="1" t="s">
         <v>1049</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="CG274" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="CH274" s="1" t="s">
         <v>130</v>
@@ -60741,10 +60621,10 @@
         <v>87</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>1296</v>
@@ -60759,7 +60639,7 @@
         <v>93</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I275" s="1" t="s">
         <v>1296</v>
@@ -60768,13 +60648,13 @@
         <v>810</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>100</v>
@@ -60828,7 +60708,7 @@
         <v>0</v>
       </c>
       <c r="AN275" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="AO275" s="1">
         <v>0</v>
@@ -60864,7 +60744,7 @@
         <v>19</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="BE275" s="1" t="s">
         <v>113</v>
@@ -60876,13 +60756,13 @@
         <v>115</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="BM275" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT275" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="BU275" s="1" t="s">
         <v>122</v>
@@ -60906,13 +60786,13 @@
         <v>1033</v>
       </c>
       <c r="CD275" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="CE275" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="CG275" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="CH275" s="1" t="s">
         <v>130</v>
@@ -60926,10 +60806,10 @@
         <v>87</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>1296</v>
@@ -60944,7 +60824,7 @@
         <v>93</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I276" s="1" t="s">
         <v>1296</v>
@@ -60953,13 +60833,13 @@
         <v>810</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>100</v>
@@ -61013,7 +60893,7 @@
         <v>0</v>
       </c>
       <c r="AN276" s="1" t="s">
-        <v>3175</v>
+        <v>3172</v>
       </c>
       <c r="AO276" s="1">
         <v>0</v>
@@ -61049,7 +60929,7 @@
         <v>19</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BE276" s="1" t="s">
         <v>113</v>
@@ -61061,13 +60941,13 @@
         <v>115</v>
       </c>
       <c r="BH276" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="BM276" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT276" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="BU276" s="1" t="s">
         <v>122</v>
@@ -61094,10 +60974,10 @@
         <v>2218</v>
       </c>
       <c r="CE276" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="CG276" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>130</v>
@@ -61111,10 +60991,10 @@
         <v>87</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>1296</v>
@@ -61129,7 +61009,7 @@
         <v>93</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I277" s="1" t="s">
         <v>1296</v>
@@ -61138,13 +61018,13 @@
         <v>810</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="L277" s="1" t="s">
         <v>2360</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>100</v>
@@ -61180,7 +61060,7 @@
         <v>106</v>
       </c>
       <c r="AG277" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="AH277" s="1" t="s">
         <v>554</v>
@@ -61195,7 +61075,7 @@
         <v>0</v>
       </c>
       <c r="AN277" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="AO277" s="1">
         <v>0</v>
@@ -61228,19 +61108,19 @@
         <v>19</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="BG277" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="BM277" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT277" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="BU277" s="1" t="s">
         <v>122</v>
@@ -61258,16 +61138,16 @@
         <v>101</v>
       </c>
       <c r="CC277" s="1" t="s">
+        <v>3222</v>
+      </c>
+      <c r="CD277" s="1" t="s">
+        <v>3223</v>
+      </c>
+      <c r="CE277" s="1" t="s">
+        <v>3224</v>
+      </c>
+      <c r="CG277" s="1" t="s">
         <v>3225</v>
-      </c>
-      <c r="CD277" s="1" t="s">
-        <v>3226</v>
-      </c>
-      <c r="CE277" s="1" t="s">
-        <v>3227</v>
-      </c>
-      <c r="CG277" s="1" t="s">
-        <v>3228</v>
       </c>
       <c r="CH277" s="1" t="s">
         <v>130</v>
@@ -61281,10 +61161,10 @@
         <v>87</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>1296</v>
@@ -61299,7 +61179,7 @@
         <v>93</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I278" s="1" t="s">
         <v>1296</v>
@@ -61308,19 +61188,19 @@
         <v>810</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="L278" s="1" t="s">
         <v>2368</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>100</v>
       </c>
       <c r="P278" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="Q278" s="3">
         <v>16452</v>
@@ -61398,19 +61278,19 @@
         <v>19</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="BG278" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="BM278" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT278" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="BU278" s="1" t="s">
         <v>122</v>
@@ -61431,16 +61311,16 @@
         <v>2286</v>
       </c>
       <c r="CC278" s="1" t="s">
+        <v>3232</v>
+      </c>
+      <c r="CD278" s="1" t="s">
+        <v>3233</v>
+      </c>
+      <c r="CE278" s="1" t="s">
+        <v>3234</v>
+      </c>
+      <c r="CG278" s="1" t="s">
         <v>3235</v>
-      </c>
-      <c r="CD278" s="1" t="s">
-        <v>3236</v>
-      </c>
-      <c r="CE278" s="1" t="s">
-        <v>3237</v>
-      </c>
-      <c r="CG278" s="1" t="s">
-        <v>3238</v>
       </c>
       <c r="CH278" s="1" t="s">
         <v>130</v>
@@ -61454,10 +61334,10 @@
         <v>87</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>1296</v>
@@ -61472,7 +61352,7 @@
         <v>93</v>
       </c>
       <c r="H279" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I279" s="1" t="s">
         <v>1296</v>
@@ -61481,13 +61361,13 @@
         <v>810</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>3239</v>
+        <v>3236</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="N279" s="1" t="s">
-        <v>3240</v>
+        <v>3237</v>
       </c>
       <c r="O279" s="1" t="s">
         <v>100</v>
@@ -61571,19 +61451,19 @@
         <v>19</v>
       </c>
       <c r="BD279" s="1" t="s">
-        <v>3241</v>
+        <v>3238</v>
       </c>
       <c r="BG279" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH279" s="1" t="s">
-        <v>3242</v>
+        <v>3239</v>
       </c>
       <c r="BM279" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT279" s="1" t="s">
-        <v>3243</v>
+        <v>3240</v>
       </c>
       <c r="BU279" s="1" t="s">
         <v>122</v>
@@ -61604,13 +61484,13 @@
         <v>1240</v>
       </c>
       <c r="CD279" s="1" t="s">
-        <v>3244</v>
+        <v>3241</v>
       </c>
       <c r="CE279" s="1" t="s">
-        <v>3245</v>
+        <v>3242</v>
       </c>
       <c r="CG279" s="1" t="s">
-        <v>3246</v>
+        <v>3243</v>
       </c>
       <c r="CH279" s="1" t="s">
         <v>130</v>
@@ -61624,10 +61504,10 @@
         <v>87</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>1296</v>
@@ -61642,7 +61522,7 @@
         <v>93</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I280" s="1" t="s">
         <v>1296</v>
@@ -61651,13 +61531,13 @@
         <v>810</v>
       </c>
       <c r="K280" s="1" t="s">
-        <v>3247</v>
+        <v>3244</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="N280" s="1" t="s">
-        <v>3249</v>
+        <v>3246</v>
       </c>
       <c r="O280" s="1" t="s">
         <v>100</v>
@@ -61708,7 +61588,7 @@
         <v>0</v>
       </c>
       <c r="AN280" s="1" t="s">
-        <v>3250</v>
+        <v>3247</v>
       </c>
       <c r="AO280" s="1">
         <v>0</v>
@@ -61744,7 +61624,7 @@
         <v>19</v>
       </c>
       <c r="BD280" s="1" t="s">
-        <v>3251</v>
+        <v>3248</v>
       </c>
       <c r="BE280" s="1" t="s">
         <v>113</v>
@@ -61756,13 +61636,13 @@
         <v>115</v>
       </c>
       <c r="BH280" s="1" t="s">
-        <v>3252</v>
+        <v>3249</v>
       </c>
       <c r="BM280" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT280" s="1" t="s">
-        <v>3253</v>
+        <v>3250</v>
       </c>
       <c r="BU280" s="1" t="s">
         <v>122</v>
@@ -61783,16 +61663,16 @@
         <v>92</v>
       </c>
       <c r="CC280" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="CD280" s="1" t="s">
-        <v>3254</v>
+        <v>3251</v>
       </c>
       <c r="CE280" s="1" t="s">
-        <v>3255</v>
+        <v>3252</v>
       </c>
       <c r="CG280" s="1" t="s">
-        <v>3256</v>
+        <v>3253</v>
       </c>
       <c r="CH280" s="1" t="s">
         <v>130</v>
@@ -61806,10 +61686,10 @@
         <v>87</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>1296</v>
@@ -61824,7 +61704,7 @@
         <v>93</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I281" s="1" t="s">
         <v>1296</v>
@@ -61833,13 +61713,13 @@
         <v>810</v>
       </c>
       <c r="K281" s="1" t="s">
-        <v>3257</v>
+        <v>3254</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>3258</v>
+        <v>3255</v>
       </c>
       <c r="N281" s="1" t="s">
-        <v>3259</v>
+        <v>3256</v>
       </c>
       <c r="O281" s="1" t="s">
         <v>100</v>
@@ -61893,7 +61773,7 @@
         <v>0</v>
       </c>
       <c r="AN281" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="AO281" s="1">
         <v>0</v>
@@ -61929,7 +61809,7 @@
         <v>19</v>
       </c>
       <c r="BD281" s="1" t="s">
-        <v>3260</v>
+        <v>3257</v>
       </c>
       <c r="BE281" s="1" t="s">
         <v>113</v>
@@ -61941,13 +61821,13 @@
         <v>115</v>
       </c>
       <c r="BH281" s="1" t="s">
-        <v>3261</v>
+        <v>3258</v>
       </c>
       <c r="BM281" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT281" s="1" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
       <c r="BU281" s="1" t="s">
         <v>122</v>
@@ -61968,16 +61848,16 @@
         <v>101</v>
       </c>
       <c r="CC281" s="1" t="s">
+        <v>3260</v>
+      </c>
+      <c r="CD281" s="1" t="s">
+        <v>3261</v>
+      </c>
+      <c r="CE281" s="1" t="s">
+        <v>3262</v>
+      </c>
+      <c r="CG281" s="1" t="s">
         <v>3263</v>
-      </c>
-      <c r="CD281" s="1" t="s">
-        <v>3264</v>
-      </c>
-      <c r="CE281" s="1" t="s">
-        <v>3265</v>
-      </c>
-      <c r="CG281" s="1" t="s">
-        <v>3266</v>
       </c>
       <c r="CH281" s="1" t="s">
         <v>130</v>
@@ -61991,10 +61871,10 @@
         <v>87</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>1296</v>
@@ -62009,7 +61889,7 @@
         <v>93</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>1296</v>
@@ -62018,13 +61898,13 @@
         <v>810</v>
       </c>
       <c r="K282" s="1" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="N282" s="1" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="O282" s="1" t="s">
         <v>100</v>
@@ -62078,7 +61958,7 @@
         <v>0</v>
       </c>
       <c r="AN282" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="AO282" s="1">
         <v>0</v>
@@ -62114,7 +61994,7 @@
         <v>19</v>
       </c>
       <c r="BD282" s="1" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="BE282" s="1" t="s">
         <v>113</v>
@@ -62126,13 +62006,13 @@
         <v>115</v>
       </c>
       <c r="BH282" s="1" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="BM282" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT282" s="1" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="BU282" s="1" t="s">
         <v>122</v>
@@ -62153,16 +62033,16 @@
         <v>101</v>
       </c>
       <c r="CC282" s="1" t="s">
+        <v>3270</v>
+      </c>
+      <c r="CD282" s="1" t="s">
+        <v>3271</v>
+      </c>
+      <c r="CE282" s="1" t="s">
+        <v>3272</v>
+      </c>
+      <c r="CG282" s="1" t="s">
         <v>3273</v>
-      </c>
-      <c r="CD282" s="1" t="s">
-        <v>3274</v>
-      </c>
-      <c r="CE282" s="1" t="s">
-        <v>3275</v>
-      </c>
-      <c r="CG282" s="1" t="s">
-        <v>3276</v>
       </c>
       <c r="CH282" s="1" t="s">
         <v>130</v>
@@ -62176,10 +62056,10 @@
         <v>87</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>1296</v>
@@ -62194,7 +62074,7 @@
         <v>93</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I283" s="1" t="s">
         <v>1296</v>
@@ -62203,13 +62083,13 @@
         <v>810</v>
       </c>
       <c r="K283" s="1" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="N283" s="1" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="O283" s="1" t="s">
         <v>100</v>
@@ -62296,7 +62176,7 @@
         <v>19</v>
       </c>
       <c r="BD283" s="1" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="BE283" s="1" t="s">
         <v>113</v>
@@ -62308,13 +62188,13 @@
         <v>115</v>
       </c>
       <c r="BH283" s="1" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="BM283" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT283" s="1" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="BU283" s="1" t="s">
         <v>122</v>
@@ -62335,16 +62215,16 @@
         <v>101</v>
       </c>
       <c r="CC283" s="1" t="s">
-        <v>2432</v>
+        <v>2431</v>
       </c>
       <c r="CD283" s="1" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="CE283" s="1" t="s">
         <v>204</v>
       </c>
       <c r="CG283" s="1" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="CH283" s="1" t="s">
         <v>130</v>
@@ -62358,10 +62238,10 @@
         <v>87</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>1296</v>
@@ -62376,7 +62256,7 @@
         <v>93</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I284" s="1" t="s">
         <v>1296</v>
@@ -62385,13 +62265,13 @@
         <v>810</v>
       </c>
       <c r="K284" s="1" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="N284" s="1" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="O284" s="1" t="s">
         <v>100</v>
@@ -62445,7 +62325,7 @@
         <v>0</v>
       </c>
       <c r="AN284" s="1" t="s">
-        <v>2449</v>
+        <v>2448</v>
       </c>
       <c r="AO284" s="1">
         <v>0</v>
@@ -62481,7 +62361,7 @@
         <v>19</v>
       </c>
       <c r="BD284" s="1" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="BE284" s="1" t="s">
         <v>113</v>
@@ -62493,19 +62373,19 @@
         <v>115</v>
       </c>
       <c r="BH284" s="1" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="BM284" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT284" s="1" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="BU284" s="1" t="s">
         <v>122</v>
       </c>
       <c r="BW284" s="1" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="BX284" s="1">
         <v>0</v>
@@ -62523,16 +62403,16 @@
         <v>101</v>
       </c>
       <c r="CC284" s="1" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="CD284" s="1" t="s">
         <v>1304</v>
       </c>
       <c r="CE284" s="1" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="CG284" s="1" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="CH284" s="1" t="s">
         <v>130</v>
@@ -62546,10 +62426,10 @@
         <v>87</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>1296</v>
@@ -62564,7 +62444,7 @@
         <v>93</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I285" s="1" t="s">
         <v>1296</v>
@@ -62573,13 +62453,13 @@
         <v>810</v>
       </c>
       <c r="K285" s="1" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="N285" s="1" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="O285" s="1" t="s">
         <v>100</v>
@@ -62630,7 +62510,7 @@
         <v>0</v>
       </c>
       <c r="AN285" s="1" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AO285" s="1">
         <v>0</v>
@@ -62666,7 +62546,7 @@
         <v>19</v>
       </c>
       <c r="BD285" s="1" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="BE285" s="1" t="s">
         <v>113</v>
@@ -62678,13 +62558,13 @@
         <v>115</v>
       </c>
       <c r="BH285" s="1" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="BM285" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT285" s="1" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="BU285" s="1" t="s">
         <v>122</v>
@@ -62705,16 +62585,16 @@
         <v>101</v>
       </c>
       <c r="CC285" s="1" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="CD285" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="CE285" s="1" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="CG285" s="1" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="CH285" s="1" t="s">
         <v>130</v>
@@ -62728,10 +62608,10 @@
         <v>87</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>1296</v>
@@ -62746,7 +62626,7 @@
         <v>93</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I286" s="1" t="s">
         <v>1296</v>
@@ -62755,13 +62635,13 @@
         <v>810</v>
       </c>
       <c r="K286" s="1" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="N286" s="1" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="O286" s="1" t="s">
         <v>100</v>
@@ -62788,7 +62668,7 @@
         <v>0</v>
       </c>
       <c r="AG286" s="1" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="AH286" s="1" t="s">
         <v>380</v>
@@ -62803,7 +62683,7 @@
         <v>0</v>
       </c>
       <c r="AN286" s="1" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="AO286" s="1">
         <v>0</v>
@@ -62833,7 +62713,7 @@
         <v>19</v>
       </c>
       <c r="BD286" s="1" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="BE286" s="1" t="s">
         <v>113</v>
@@ -62845,13 +62725,13 @@
         <v>115</v>
       </c>
       <c r="BH286" s="1" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="BM286" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT286" s="1" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="BU286" s="1" t="s">
         <v>122</v>
@@ -62869,16 +62749,16 @@
         <v>101</v>
       </c>
       <c r="CC286" s="1" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="CD286" s="1" t="s">
         <v>306</v>
       </c>
       <c r="CE286" s="1" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="CG286" s="1" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="CH286" s="1" t="s">
         <v>130</v>
@@ -62892,10 +62772,10 @@
         <v>87</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>1296</v>
@@ -62910,7 +62790,7 @@
         <v>93</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I287" s="1" t="s">
         <v>1296</v>
@@ -62919,13 +62799,13 @@
         <v>810</v>
       </c>
       <c r="K287" s="1" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="N287" s="1" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="O287" s="1" t="s">
         <v>100</v>
@@ -63009,7 +62889,7 @@
         <v>19</v>
       </c>
       <c r="BD287" s="1" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="BE287" s="1" t="s">
         <v>113</v>
@@ -63021,13 +62901,13 @@
         <v>115</v>
       </c>
       <c r="BH287" s="1" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="BM287" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT287" s="1" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="BU287" s="1" t="s">
         <v>122</v>
@@ -63045,16 +62925,16 @@
         <v>101</v>
       </c>
       <c r="CC287" s="1" t="s">
+        <v>3318</v>
+      </c>
+      <c r="CD287" s="1" t="s">
+        <v>3319</v>
+      </c>
+      <c r="CE287" s="1" t="s">
+        <v>3320</v>
+      </c>
+      <c r="CG287" s="1" t="s">
         <v>3321</v>
-      </c>
-      <c r="CD287" s="1" t="s">
-        <v>3322</v>
-      </c>
-      <c r="CE287" s="1" t="s">
-        <v>3323</v>
-      </c>
-      <c r="CG287" s="1" t="s">
-        <v>3324</v>
       </c>
       <c r="CH287" s="1" t="s">
         <v>130</v>
@@ -63068,10 +62948,10 @@
         <v>87</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>1296</v>
@@ -63086,7 +62966,7 @@
         <v>93</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I288" s="1" t="s">
         <v>1296</v>
@@ -63095,13 +62975,13 @@
         <v>810</v>
       </c>
       <c r="K288" s="1" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="N288" s="1" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="O288" s="1" t="s">
         <v>100</v>
@@ -63188,7 +63068,7 @@
         <v>19</v>
       </c>
       <c r="BD288" s="1" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="BE288" s="1" t="s">
         <v>113</v>
@@ -63200,13 +63080,13 @@
         <v>115</v>
       </c>
       <c r="BH288" s="1" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="BM288" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT288" s="1" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="BU288" s="1" t="s">
         <v>122</v>
@@ -63224,16 +63104,16 @@
         <v>101</v>
       </c>
       <c r="CC288" s="1" t="s">
+        <v>3328</v>
+      </c>
+      <c r="CD288" s="1" t="s">
+        <v>3329</v>
+      </c>
+      <c r="CE288" s="1" t="s">
+        <v>3330</v>
+      </c>
+      <c r="CG288" s="1" t="s">
         <v>3331</v>
-      </c>
-      <c r="CD288" s="1" t="s">
-        <v>3332</v>
-      </c>
-      <c r="CE288" s="1" t="s">
-        <v>3333</v>
-      </c>
-      <c r="CG288" s="1" t="s">
-        <v>3334</v>
       </c>
       <c r="CH288" s="1" t="s">
         <v>130</v>
@@ -63247,10 +63127,10 @@
         <v>87</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>1296</v>
@@ -63265,7 +63145,7 @@
         <v>93</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="I289" s="1" t="s">
         <v>1296</v>
@@ -63274,13 +63154,13 @@
         <v>810</v>
       </c>
       <c r="K289" s="1" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="N289" s="1" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="O289" s="1" t="s">
         <v>100</v>
@@ -63288,9 +63168,6 @@
       <c r="P289" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="Q289" t="s">
-        <v>3338</v>
-      </c>
       <c r="R289" s="1" t="s">
         <v>136</v>
       </c>
@@ -63331,7 +63208,7 @@
         <v>0</v>
       </c>
       <c r="AN289" s="1" t="s">
-        <v>3339</v>
+        <v>3335</v>
       </c>
       <c r="AO289" s="1">
         <v>0</v>
@@ -63364,7 +63241,7 @@
         <v>19</v>
       </c>
       <c r="BD289" s="1" t="s">
-        <v>3340</v>
+        <v>3336</v>
       </c>
       <c r="BE289" s="1" t="s">
         <v>113</v>
@@ -63376,13 +63253,13 @@
         <v>115</v>
       </c>
       <c r="BH289" s="1" t="s">
-        <v>3341</v>
+        <v>3337</v>
       </c>
       <c r="BM289" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BT289" s="1" t="s">
-        <v>3342</v>
+        <v>3338</v>
       </c>
       <c r="BU289" s="1" t="s">
         <v>122</v>
@@ -63400,16 +63277,16 @@
         <v>101</v>
       </c>
       <c r="CC289" s="1" t="s">
-        <v>3343</v>
+        <v>3339</v>
       </c>
       <c r="CD289" s="1" t="s">
-        <v>3344</v>
+        <v>3340</v>
       </c>
       <c r="CE289" s="1" t="s">
-        <v>3345</v>
+        <v>3341</v>
       </c>
       <c r="CG289" s="1" t="s">
-        <v>3346</v>
+        <v>3342</v>
       </c>
       <c r="CH289" s="1" t="s">
         <v>130</v>
@@ -63467,13 +63344,13 @@
       <c r="P290" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q290" s="3">
+      <c r="Q290" s="7">
         <v>27862</v>
       </c>
       <c r="R290" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="S290" s="5">
+      <c r="S290" s="7">
         <v>39630</v>
       </c>
       <c r="T290" s="4" t="s">
@@ -63563,7 +63440,7 @@
         <v>19</v>
       </c>
       <c r="BD290" s="4" t="s">
-        <v>3347</v>
+        <v>3343</v>
       </c>
       <c r="BE290" s="4"/>
       <c r="BF290" s="4"/>
@@ -63571,7 +63448,7 @@
         <v>115</v>
       </c>
       <c r="BH290" s="4" t="s">
-        <v>3348</v>
+        <v>3344</v>
       </c>
       <c r="BI290" s="4"/>
       <c r="BJ290" s="4"/>
@@ -63630,7 +63507,7 @@
       </c>
       <c r="CF290" s="4"/>
       <c r="CG290" s="4" t="s">
-        <v>3349</v>
+        <v>3345</v>
       </c>
       <c r="CH290" s="4" t="s">
         <v>130</v>
@@ -63671,16 +63548,16 @@
         <v>96</v>
       </c>
       <c r="K291" s="4" t="s">
+        <v>2775</v>
+      </c>
+      <c r="L291" s="4" t="s">
         <v>2776</v>
-      </c>
-      <c r="L291" s="4" t="s">
-        <v>2777</v>
       </c>
       <c r="M291" s="4" t="s">
         <v>102</v>
       </c>
       <c r="N291" s="4" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="O291" s="4" t="s">
         <v>100</v>
@@ -63688,13 +63565,13 @@
       <c r="P291" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q291" s="3">
+      <c r="Q291" s="7">
         <v>29411</v>
       </c>
       <c r="R291" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="S291" s="5">
+      <c r="S291" s="7">
         <v>43009</v>
       </c>
       <c r="T291" s="4" t="s">
@@ -63769,7 +63646,7 @@
         <v>101</v>
       </c>
       <c r="AZ291" s="4" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="BA291" s="4" t="s">
         <v>275</v>
@@ -63781,7 +63658,7 @@
         <v>19</v>
       </c>
       <c r="BD291" s="4" t="s">
-        <v>3350</v>
+        <v>3346</v>
       </c>
       <c r="BE291" s="4"/>
       <c r="BF291" s="4"/>
@@ -63789,7 +63666,7 @@
         <v>115</v>
       </c>
       <c r="BH291" s="4" t="s">
-        <v>3351</v>
+        <v>3347</v>
       </c>
       <c r="BI291" s="4"/>
       <c r="BJ291" s="4"/>
@@ -63807,13 +63684,13 @@
       </c>
       <c r="BQ291" s="4"/>
       <c r="BR291" s="4" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="BS291" s="5">
         <v>37513</v>
       </c>
       <c r="BT291" s="4" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="BU291" s="4" t="s">
         <v>122</v>
@@ -63834,17 +63711,17 @@
         <v>101</v>
       </c>
       <c r="CC291" s="4" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="CD291" s="4" t="s">
         <v>126</v>
       </c>
       <c r="CE291" s="4" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="CF291" s="4"/>
       <c r="CG291" s="4" t="s">
-        <v>3352</v>
+        <v>3348</v>
       </c>
       <c r="CH291" s="4" t="s">
         <v>130</v>
@@ -63885,16 +63762,16 @@
         <v>96</v>
       </c>
       <c r="K292" s="4" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="L292" s="4" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
       <c r="M292" s="4" t="s">
         <v>102</v>
       </c>
       <c r="N292" s="4" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
       <c r="O292" s="4" t="s">
         <v>100</v>
@@ -63902,13 +63779,13 @@
       <c r="P292" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q292" s="3">
+      <c r="Q292" s="7">
         <v>29181</v>
       </c>
       <c r="R292" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="S292" s="5">
+      <c r="S292" s="7">
         <v>43405</v>
       </c>
       <c r="T292" s="4" t="s">
@@ -63927,12 +63804,7 @@
         <v>0</v>
       </c>
       <c r="AB292" s="4"/>
-      <c r="AC292" s="5">
-        <v>43405</v>
-      </c>
-      <c r="AD292" s="4" t="s">
-        <v>2856</v>
-      </c>
+      <c r="AD292" s="4"/>
       <c r="AF292" s="4" t="s">
         <v>106</v>
       </c>
@@ -63996,7 +63868,7 @@
         <v>19</v>
       </c>
       <c r="BD292" s="4" t="s">
-        <v>3353</v>
+        <v>3349</v>
       </c>
       <c r="BE292" s="4"/>
       <c r="BF292" s="4"/>
@@ -64020,13 +63892,13 @@
       <c r="BP292" s="4"/>
       <c r="BQ292" s="4"/>
       <c r="BR292" s="4" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="BS292" s="5">
         <v>37069</v>
       </c>
       <c r="BT292" s="4" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="BU292" s="4" t="s">
         <v>122</v>
@@ -64050,10 +63922,10 @@
         <v>781</v>
       </c>
       <c r="CD292" s="4" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="CE292" s="4" t="s">
-        <v>2951</v>
+        <v>2949</v>
       </c>
       <c r="CF292" s="4"/>
       <c r="CG292" s="4" t="s">
@@ -64098,16 +63970,16 @@
         <v>96</v>
       </c>
       <c r="K293" s="4" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="L293" s="4" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="M293" s="4" t="s">
         <v>102</v>
       </c>
       <c r="N293" s="4" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="O293" s="4" t="s">
         <v>100</v>
@@ -64115,13 +63987,13 @@
       <c r="P293" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="Q293" s="3">
+      <c r="Q293" s="7">
         <v>23180</v>
       </c>
       <c r="R293" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="S293" s="5">
+      <c r="S293" s="7">
         <v>43556</v>
       </c>
       <c r="T293" s="4" t="s">
@@ -64208,7 +64080,7 @@
         <v>19</v>
       </c>
       <c r="BD293" s="4" t="s">
-        <v>3354</v>
+        <v>3350</v>
       </c>
       <c r="BE293" s="4"/>
       <c r="BF293" s="4"/>
@@ -64216,7 +64088,7 @@
         <v>115</v>
       </c>
       <c r="BH293" s="4" t="s">
-        <v>3355</v>
+        <v>3351</v>
       </c>
       <c r="BI293" s="4"/>
       <c r="BJ293" s="4"/>
@@ -64231,7 +64103,7 @@
       <c r="BQ293" s="4"/>
       <c r="BR293" s="4"/>
       <c r="BT293" s="4" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="BU293" s="4" t="s">
         <v>122</v>
@@ -64255,14 +64127,14 @@
         <v>1287</v>
       </c>
       <c r="CD293" s="4" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="CE293" s="4" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="CF293" s="4"/>
       <c r="CG293" s="4" t="s">
-        <v>3356</v>
+        <v>3352</v>
       </c>
       <c r="CH293" s="4" t="s">
         <v>130</v>
@@ -64272,6 +64144,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CI293" xr:uid="{19EAAB94-4271-44FD-A019-311A066E8698}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>